--- a/SPR_Utils/ClickTrainLongTermFigure/Offset/ME_OffsetRecording_XX.xlsx
+++ b/SPR_Utils/ClickTrainLongTermFigure/Offset/ME_OffsetRecording_XX.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="true"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D14EC91B-DA4D-4C34-A525-C1ED6BD5F222}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B20DADA-E88E-4A0D-9F4D-370A420B8908}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4392"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4395"/>
   </bookViews>
   <sheets>
     <sheet name="CC" sheetId="2" r:id="rId1"/>
@@ -20,47 +20,147 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="68">
+  <si>
+    <t>Offset_256_512_10s</t>
+  </si>
   <si>
     <t>paradigm</t>
   </si>
   <si>
+    <t>Offset_2_128_4s</t>
+  </si>
+  <si>
+    <t>Offset_256_512_10s</t>
+  </si>
+  <si>
+    <t>Offset_Duration_Effect_4ms_16ms_Reg</t>
+  </si>
+  <si>
+    <t>Offset_Variance_Effect_4ms_16ms_sigma250_2_Reg</t>
+  </si>
+  <si>
+    <t>Offset_2_128_4s_New</t>
+  </si>
+  <si>
+    <t>Offset_Duration_Effect_4ms_Reg_New</t>
+  </si>
+  <si>
+    <t>Offset_Duration_Effect_8ms_Reg_New</t>
+  </si>
+  <si>
+    <t>Offset_Variance_Effect_4ms_8ms_sigma250_2_Reg_500ms</t>
+  </si>
+  <si>
     <t>tankPath</t>
   </si>
   <si>
+    <t>G:\ECOG\xiaoxiao\xx20221201\Block-1</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221201\Block-2</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221215\Block-2</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221201\Block-3</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221201\Block-4</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221215\Block-1</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221215\Block-4</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221215\Block-3</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221215\Block-5</t>
+  </si>
+  <si>
     <t>Exported</t>
   </si>
   <si>
+    <t>Offset_2_128_4s_New</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221216\Block-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221216\Block-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
     <t>Offset_2_128_4s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Offset_256_512_10s</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Offset_Duration_Effect_4ms_16ms_Reg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Offset_Variance_Effect_4ms_16ms_sigma250_2_Reg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offset_2_128_4s_New</t>
+  </si>
+  <si>
+    <t>Offset_Duration_Effect_4ms_Reg_New</t>
+  </si>
+  <si>
+    <t>Offset_Duration_Effect_8ms_Reg_New</t>
+  </si>
+  <si>
+    <t>Offset_Variance_Effect_4ms_8ms_sigma250_2_Reg_500ms</t>
+  </si>
+  <si>
+    <t>tankPath</t>
   </si>
   <si>
     <t>G:\ECOG\xiaoxiao\xx20221201\Block-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>G:\ECOG\xiaoxiao\xx20221201\Block-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221215\Block-2</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221216\Block-4</t>
   </si>
   <si>
     <t>G:\ECOG\xiaoxiao\xx20221201\Block-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>G:\ECOG\xiaoxiao\xx20221201\Block-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221215\Block-1</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221216\Block-3</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221215\Block-4</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221215\Block-3</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221215\Block-5</t>
+  </si>
+  <si>
+    <t>Exported</t>
   </si>
   <si>
     <t>paradigm</t>
@@ -78,6 +178,18 @@
     <t>Offset_Variance_Effect_4ms_16ms_sigma250_2_Reg</t>
   </si>
   <si>
+    <t>Offset_2_128_4s_New</t>
+  </si>
+  <si>
+    <t>Offset_Duration_Effect_4ms_Reg_New</t>
+  </si>
+  <si>
+    <t>Offset_Duration_Effect_8ms_Reg_New</t>
+  </si>
+  <si>
+    <t>Offset_Variance_Effect_4ms_8ms_sigma250_2_Reg_500ms</t>
+  </si>
+  <si>
     <t>tankPath</t>
   </si>
   <si>
@@ -87,109 +199,31 @@
     <t>G:\ECOG\xiaoxiao\xx20221201\Block-2</t>
   </si>
   <si>
+    <t>G:\ECOG\xiaoxiao\xx20221215\Block-2</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221216\Block-4</t>
+  </si>
+  <si>
     <t>G:\ECOG\xiaoxiao\xx20221201\Block-3</t>
   </si>
   <si>
     <t>G:\ECOG\xiaoxiao\xx20221201\Block-4</t>
   </si>
   <si>
-    <t>Exported</t>
-  </si>
-  <si>
-    <t>paradigm</t>
-  </si>
-  <si>
-    <t>Offset_2_128_4s</t>
-  </si>
-  <si>
-    <t>Offset_256_512_10s</t>
-  </si>
-  <si>
-    <t>Offset_Duration_Effect_4ms_16ms_Reg</t>
-  </si>
-  <si>
-    <t>Offset_Variance_Effect_4ms_16ms_sigma250_2_Reg</t>
-  </si>
-  <si>
-    <t>tankPath</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20221201\Block-1</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20221201\Block-2</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20221201\Block-3</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20221201\Block-4</t>
-  </si>
-  <si>
-    <t>Exported</t>
-  </si>
-  <si>
-    <t>paradigm</t>
-  </si>
-  <si>
-    <t>Offset_2_128_4s</t>
-  </si>
-  <si>
-    <t>Offset_256_512_10s</t>
-  </si>
-  <si>
-    <t>Offset_Duration_Effect_4ms_16ms_Reg</t>
-  </si>
-  <si>
-    <t>Offset_Variance_Effect_4ms_16ms_sigma250_2_Reg</t>
-  </si>
-  <si>
-    <t>tankPath</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20221201\Block-1</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20221201\Block-2</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20221201\Block-3</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20221201\Block-4</t>
-  </si>
-  <si>
-    <t>Exported</t>
-  </si>
-  <si>
-    <t>paradigm</t>
-  </si>
-  <si>
-    <t>Offset_2_128_4s</t>
-  </si>
-  <si>
-    <t>Offset_256_512_10s</t>
-  </si>
-  <si>
-    <t>Offset_Duration_Effect_4ms_16ms_Reg</t>
-  </si>
-  <si>
-    <t>Offset_Variance_Effect_4ms_16ms_sigma250_2_Reg</t>
-  </si>
-  <si>
-    <t>tankPath</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20221201\Block-1</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20221201\Block-2</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20221201\Block-3</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20221201\Block-4</t>
+    <t>G:\ECOG\xiaoxiao\xx20221215\Block-1</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221216\Block-3</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221215\Block-4</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221215\Block-3</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221215\Block-5</t>
   </si>
   <si>
     <t>Exported</t>
@@ -240,7 +274,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -284,15 +318,20 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border/>
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border/>
     <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
@@ -330,10 +369,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -614,769 +654,833 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C23A6ACB-7C6B-4CD1-9AC1-822BCA547FA6}">
-  <dimension ref="A1:C249"/>
+  <dimension ref="A1:C253"/>
   <sheetViews>
     <sheetView tabSelected="true" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" thickBottom="true" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" thickBottom="true" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.40234375" style="4" customWidth="true"/>
-    <col min="2" max="2" width="34.2890625" style="1" customWidth="true"/>
-    <col min="3" max="3" width="9.51171875" style="8" customWidth="true"/>
-    <col min="4" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="42.5" style="4" customWidth="true"/>
+    <col min="2" max="2" width="33.25" style="1" customWidth="true"/>
+    <col min="3" max="3" width="8.875" style="8" customWidth="true"/>
+    <col min="4" max="16384" width="8.875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="1" s="2" customFormat="true" ht="27" customHeight="true" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" ht="13.8" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C2" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C3" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="4" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="12">
+      <c r="B10" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="10" t="s">
+    <row r="11" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="8">
+      <c r="B11" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B6" s="6"/>
-    </row>
-    <row r="7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B7" s="6"/>
-    </row>
-    <row r="8" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B8" s="6"/>
-    </row>
-    <row r="9" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B9" s="6"/>
-    </row>
-    <row r="10" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B10" s="6"/>
-    </row>
-    <row r="11" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B11" s="6"/>
-    </row>
-    <row r="12" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B12" s="6"/>
-    </row>
-    <row r="13" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B13" s="6"/>
-    </row>
-    <row r="14" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="12" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B13" s="10"/>
+    </row>
+    <row r="14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B14" s="6"/>
     </row>
-    <row r="15" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B15" s="6"/>
     </row>
-    <row r="16" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="16" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B16" s="6"/>
     </row>
-    <row r="17" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="17" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B17" s="6"/>
     </row>
-    <row r="18" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="18" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B18" s="6"/>
     </row>
-    <row r="19" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="19" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B19" s="6"/>
     </row>
-    <row r="20" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="20" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B20" s="6"/>
     </row>
-    <row r="21" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="21" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B21" s="6"/>
     </row>
-    <row r="22" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="22" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B22" s="6"/>
     </row>
-    <row r="23" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="23" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B23" s="6"/>
     </row>
-    <row r="24" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="24" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B24" s="6"/>
     </row>
-    <row r="25" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="25" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B25" s="6"/>
     </row>
-    <row r="26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="26" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B26" s="6"/>
     </row>
-    <row r="27" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="27" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B27" s="6"/>
     </row>
-    <row r="28" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B28" s="6"/>
     </row>
-    <row r="29" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="29" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B29" s="6"/>
     </row>
-    <row r="30" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="30" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B30" s="6"/>
     </row>
-    <row r="31" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="31" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B31" s="6"/>
     </row>
-    <row r="32" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="32" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B32" s="6"/>
     </row>
-    <row r="33" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="33" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B33" s="6"/>
     </row>
-    <row r="34" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="34" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B34" s="6"/>
     </row>
-    <row r="35" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="35" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B35" s="6"/>
     </row>
-    <row r="36" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="36" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B36" s="6"/>
     </row>
-    <row r="37" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="37" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B37" s="6"/>
     </row>
-    <row r="38" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="38" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B38" s="6"/>
     </row>
-    <row r="39" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="39" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B39" s="6"/>
     </row>
-    <row r="40" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="40" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B40" s="6"/>
     </row>
-    <row r="41" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="41" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B41" s="6"/>
     </row>
-    <row r="42" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="42" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B42" s="6"/>
     </row>
-    <row r="43" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="43" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B43" s="6"/>
     </row>
-    <row r="44" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="44" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B44" s="6"/>
     </row>
-    <row r="45" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="45" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B45" s="6"/>
     </row>
-    <row r="46" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="46" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B46" s="6"/>
     </row>
-    <row r="47" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="47" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B47" s="6"/>
     </row>
-    <row r="48" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="48" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B48" s="6"/>
     </row>
-    <row r="49" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="49" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B49" s="6"/>
     </row>
-    <row r="50" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="50" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B50" s="6"/>
     </row>
-    <row r="51" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="51" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B51" s="6"/>
     </row>
-    <row r="52" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="52" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B52" s="6"/>
     </row>
-    <row r="53" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="53" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B53" s="6"/>
     </row>
-    <row r="54" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="54" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B54" s="6"/>
     </row>
-    <row r="55" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="55" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B55" s="6"/>
     </row>
-    <row r="56" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="56" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B56" s="6"/>
     </row>
-    <row r="57" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="57" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B57" s="6"/>
     </row>
-    <row r="58" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="58" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B58" s="6"/>
     </row>
-    <row r="59" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="59" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B59" s="6"/>
     </row>
-    <row r="60" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="60" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B60" s="6"/>
     </row>
-    <row r="61" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="61" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B61" s="6"/>
     </row>
-    <row r="62" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="62" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B62" s="6"/>
     </row>
-    <row r="63" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="63" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B63" s="6"/>
     </row>
-    <row r="64" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="64" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B64" s="6"/>
     </row>
-    <row r="65" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="65" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B65" s="6"/>
     </row>
-    <row r="66" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="66" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B66" s="6"/>
     </row>
-    <row r="67" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="67" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B67" s="6"/>
     </row>
-    <row r="68" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="68" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B68" s="6"/>
     </row>
-    <row r="69" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="69" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B69" s="6"/>
     </row>
-    <row r="70" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="70" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B70" s="6"/>
     </row>
-    <row r="71" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="71" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B71" s="6"/>
     </row>
-    <row r="72" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="72" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B72" s="6"/>
     </row>
-    <row r="73" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="73" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B73" s="6"/>
     </row>
-    <row r="74" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="74" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B74" s="6"/>
     </row>
-    <row r="75" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="75" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B75" s="6"/>
     </row>
-    <row r="76" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="76" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B76" s="6"/>
     </row>
-    <row r="77" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="77" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B77" s="6"/>
     </row>
-    <row r="78" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="78" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B78" s="6"/>
     </row>
-    <row r="79" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="79" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B79" s="6"/>
     </row>
-    <row r="80" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="80" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B80" s="6"/>
     </row>
-    <row r="81" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="81" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B81" s="6"/>
     </row>
-    <row r="82" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="82" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B82" s="6"/>
     </row>
-    <row r="83" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="83" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B83" s="6"/>
     </row>
-    <row r="84" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="84" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B84" s="6"/>
     </row>
-    <row r="85" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="85" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B85" s="6"/>
     </row>
-    <row r="86" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="86" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B86" s="6"/>
     </row>
-    <row r="87" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="87" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B87" s="6"/>
     </row>
-    <row r="88" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="88" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B88" s="6"/>
     </row>
-    <row r="89" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="89" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B89" s="6"/>
     </row>
-    <row r="90" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="90" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B90" s="6"/>
     </row>
-    <row r="91" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="91" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B91" s="6"/>
     </row>
-    <row r="92" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="92" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B92" s="6"/>
     </row>
-    <row r="93" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="93" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B93" s="6"/>
     </row>
-    <row r="94" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="94" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B94" s="6"/>
     </row>
-    <row r="95" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="95" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B95" s="6"/>
     </row>
-    <row r="96" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="96" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B96" s="6"/>
     </row>
-    <row r="97" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="97" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B97" s="6"/>
     </row>
-    <row r="98" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="98" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B98" s="6"/>
     </row>
-    <row r="99" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="99" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B99" s="6"/>
     </row>
-    <row r="100" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="100" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B100" s="6"/>
     </row>
-    <row r="101" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="101" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B101" s="6"/>
     </row>
-    <row r="102" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="102" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B102" s="6"/>
     </row>
-    <row r="103" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="103" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B103" s="6"/>
     </row>
-    <row r="104" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="104" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B104" s="6"/>
     </row>
-    <row r="105" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="105" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B105" s="6"/>
     </row>
-    <row r="106" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="106" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B106" s="6"/>
     </row>
-    <row r="107" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="107" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B107" s="6"/>
     </row>
-    <row r="108" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="108" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B108" s="6"/>
     </row>
-    <row r="109" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="109" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B109" s="6"/>
     </row>
-    <row r="110" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="110" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B110" s="6"/>
     </row>
-    <row r="111" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="111" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B111" s="6"/>
     </row>
-    <row r="112" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="112" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B112" s="6"/>
     </row>
-    <row r="113" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="113" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B113" s="6"/>
     </row>
-    <row r="114" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="114" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B114" s="6"/>
     </row>
-    <row r="115" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="115" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B115" s="6"/>
     </row>
-    <row r="116" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="116" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B116" s="6"/>
     </row>
-    <row r="117" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="117" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B117" s="6"/>
     </row>
-    <row r="118" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="118" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B118" s="6"/>
     </row>
-    <row r="119" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="119" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B119" s="6"/>
     </row>
-    <row r="120" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="120" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B120" s="6"/>
     </row>
-    <row r="121" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="121" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B121" s="6"/>
     </row>
-    <row r="122" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="122" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B122" s="6"/>
     </row>
-    <row r="123" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="123" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B123" s="6"/>
     </row>
-    <row r="124" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="124" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B124" s="6"/>
     </row>
-    <row r="125" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="125" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B125" s="6"/>
     </row>
-    <row r="126" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="126" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B126" s="6"/>
     </row>
-    <row r="127" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="127" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B127" s="6"/>
     </row>
-    <row r="128" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="128" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B128" s="6"/>
     </row>
-    <row r="129" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="129" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B129" s="6"/>
     </row>
-    <row r="130" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="130" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B130" s="6"/>
     </row>
-    <row r="131" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="131" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B131" s="6"/>
     </row>
-    <row r="132" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="132" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B132" s="6"/>
     </row>
-    <row r="133" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="133" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B133" s="6"/>
     </row>
-    <row r="134" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="134" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B134" s="6"/>
     </row>
-    <row r="135" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="135" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B135" s="6"/>
     </row>
-    <row r="136" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="136" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B136" s="6"/>
     </row>
-    <row r="137" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="137" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B137" s="6"/>
     </row>
-    <row r="138" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="138" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B138" s="6"/>
     </row>
-    <row r="139" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="139" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B139" s="6"/>
     </row>
-    <row r="140" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="140" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B140" s="6"/>
     </row>
-    <row r="141" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="141" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B141" s="6"/>
     </row>
-    <row r="142" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="142" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B142" s="6"/>
     </row>
-    <row r="143" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="143" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B143" s="6"/>
     </row>
-    <row r="144" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="144" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B144" s="6"/>
     </row>
-    <row r="145" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="145" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B145" s="6"/>
     </row>
-    <row r="146" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="146" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B146" s="6"/>
     </row>
-    <row r="147" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="147" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B147" s="6"/>
     </row>
-    <row r="148" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="148" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B148" s="6"/>
     </row>
-    <row r="149" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="149" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B149" s="6"/>
     </row>
-    <row r="150" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="150" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B150" s="6"/>
     </row>
-    <row r="151" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="151" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B151" s="6"/>
     </row>
-    <row r="152" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="152" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B152" s="6"/>
     </row>
-    <row r="153" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="153" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B153" s="6"/>
     </row>
-    <row r="154" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="154" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B154" s="6"/>
     </row>
-    <row r="155" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="155" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B155" s="6"/>
     </row>
-    <row r="156" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="156" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B156" s="6"/>
     </row>
-    <row r="157" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="157" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B157" s="6"/>
     </row>
-    <row r="158" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="158" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B158" s="6"/>
     </row>
-    <row r="159" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="159" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B159" s="6"/>
     </row>
-    <row r="160" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="160" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B160" s="6"/>
     </row>
-    <row r="161" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="161" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B161" s="6"/>
     </row>
-    <row r="162" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="162" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B162" s="6"/>
     </row>
-    <row r="163" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="163" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B163" s="6"/>
     </row>
-    <row r="164" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="164" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B164" s="6"/>
     </row>
-    <row r="165" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="165" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B165" s="6"/>
     </row>
-    <row r="166" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="166" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B166" s="6"/>
     </row>
-    <row r="167" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="167" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B167" s="6"/>
     </row>
-    <row r="168" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="168" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B168" s="6"/>
     </row>
-    <row r="169" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="169" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B169" s="6"/>
     </row>
-    <row r="170" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="170" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B170" s="6"/>
     </row>
-    <row r="171" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="171" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B171" s="6"/>
     </row>
-    <row r="172" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="172" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B172" s="6"/>
     </row>
-    <row r="173" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="173" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B173" s="6"/>
     </row>
-    <row r="174" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="174" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B174" s="6"/>
     </row>
-    <row r="175" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="175" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B175" s="6"/>
     </row>
-    <row r="176" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="176" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B176" s="6"/>
     </row>
-    <row r="177" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="177" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B177" s="6"/>
     </row>
-    <row r="178" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="178" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B178" s="6"/>
     </row>
-    <row r="179" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="179" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B179" s="6"/>
     </row>
-    <row r="180" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="180" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B180" s="6"/>
     </row>
-    <row r="181" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="181" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B181" s="6"/>
     </row>
-    <row r="182" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="182" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B182" s="6"/>
     </row>
-    <row r="183" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="183" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B183" s="6"/>
     </row>
-    <row r="184" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="184" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B184" s="6"/>
     </row>
-    <row r="185" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="185" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B185" s="6"/>
     </row>
-    <row r="186" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="186" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B186" s="6"/>
     </row>
-    <row r="187" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="187" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B187" s="6"/>
     </row>
-    <row r="188" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="188" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B188" s="6"/>
     </row>
-    <row r="189" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="189" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B189" s="6"/>
     </row>
-    <row r="190" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="190" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B190" s="6"/>
     </row>
-    <row r="191" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="191" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B191" s="6"/>
     </row>
-    <row r="192" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="192" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B192" s="6"/>
     </row>
-    <row r="193" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="193" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B193" s="6"/>
     </row>
-    <row r="194" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="194" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B194" s="6"/>
     </row>
-    <row r="195" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="195" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B195" s="6"/>
     </row>
-    <row r="196" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="196" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B196" s="6"/>
     </row>
-    <row r="197" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="197" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B197" s="6"/>
     </row>
-    <row r="198" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="198" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B198" s="6"/>
     </row>
-    <row r="199" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="199" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B199" s="6"/>
     </row>
-    <row r="200" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="200" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B200" s="6"/>
     </row>
-    <row r="201" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="201" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B201" s="6"/>
     </row>
-    <row r="202" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="202" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B202" s="6"/>
     </row>
-    <row r="203" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="203" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B203" s="6"/>
     </row>
-    <row r="204" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="204" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B204" s="6"/>
     </row>
-    <row r="205" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="205" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B205" s="6"/>
     </row>
-    <row r="206" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="206" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B206" s="6"/>
     </row>
-    <row r="207" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="207" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B207" s="6"/>
     </row>
-    <row r="208" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="208" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B208" s="6"/>
     </row>
-    <row r="209" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="209" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B209" s="6"/>
     </row>
-    <row r="210" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="210" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B210" s="6"/>
     </row>
-    <row r="211" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="211" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B211" s="6"/>
     </row>
-    <row r="212" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="212" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B212" s="6"/>
     </row>
-    <row r="213" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="213" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B213" s="6"/>
     </row>
-    <row r="214" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="214" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B214" s="6"/>
     </row>
-    <row r="215" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="215" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B215" s="6"/>
     </row>
-    <row r="216" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="216" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B216" s="6"/>
     </row>
-    <row r="217" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="217" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B217" s="6"/>
     </row>
-    <row r="218" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="218" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B218" s="6"/>
     </row>
-    <row r="219" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="219" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B219" s="6"/>
     </row>
-    <row r="220" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="220" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B220" s="6"/>
     </row>
-    <row r="221" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="221" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B221" s="6"/>
     </row>
-    <row r="222" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="222" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B222" s="6"/>
     </row>
-    <row r="223" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="223" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B223" s="6"/>
     </row>
-    <row r="224" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="224" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B224" s="6"/>
     </row>
-    <row r="225" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="225" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B225" s="6"/>
     </row>
-    <row r="226" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="226" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B226" s="6"/>
     </row>
-    <row r="227" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="227" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B227" s="6"/>
     </row>
-    <row r="228" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="228" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B228" s="6"/>
     </row>
-    <row r="229" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="229" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B229" s="6"/>
     </row>
-    <row r="230" thickBot="true" x14ac:dyDescent="0.3">
+    <row r="230" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B230" s="6"/>
     </row>
-    <row r="231" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B231" s="6"/>
+    </row>
+    <row r="232" thickBot="true" x14ac:dyDescent="0.25">
+      <c r="B232" s="6"/>
+    </row>
+    <row r="233" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="14.25" x14ac:dyDescent="0.2"/>
+    <row r="253" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SPR_Utils/ClickTrainLongTermFigure/Offset/ME_OffsetRecording_XX.xlsx
+++ b/SPR_Utils/ClickTrainLongTermFigure/Offset/ME_OffsetRecording_XX.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="true"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B20DADA-E88E-4A0D-9F4D-370A420B8908}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE7F817-5185-4E55-A315-B4A0236E2CCC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4395"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4392"/>
   </bookViews>
   <sheets>
     <sheet name="CC" sheetId="2" r:id="rId1"/>
@@ -20,11 +20,74 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="110">
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>Offset_2_128_4s</t>
+  </si>
   <si>
     <t>Offset_256_512_10s</t>
   </si>
   <si>
+    <t>Offset_Duration_Effect_4ms_16ms_Reg</t>
+  </si>
+  <si>
+    <t>Offset_Variance_Effect_4ms_16ms_sigma250_2_Reg</t>
+  </si>
+  <si>
+    <t>Offset_2_128_4s_New</t>
+  </si>
+  <si>
+    <t>Offset_Duration_Effect_4ms_Reg_New</t>
+  </si>
+  <si>
+    <t>Offset_Duration_Effect_8ms_Reg_New</t>
+  </si>
+  <si>
+    <t>Offset_Variance_Effect_4ms_8ms_sigma250_2_Reg_500ms</t>
+  </si>
+  <si>
+    <t>tankPath</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221201\Block-1</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221201\Block-2</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221215\Block-2</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221216\Block-4</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221201\Block-3</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221201\Block-4</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221215\Block-1</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221216\Block-3</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221215\Block-4</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221215\Block-3</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221215\Block-5</t>
+  </si>
+  <si>
+    <t>Exported</t>
+  </si>
+  <si>
     <t>paradigm</t>
   </si>
   <si>
@@ -64,6 +127,9 @@
     <t>G:\ECOG\xiaoxiao\xx20221215\Block-2</t>
   </si>
   <si>
+    <t>G:\ECOG\xiaoxiao\xx20221216\Block-4</t>
+  </si>
+  <si>
     <t>G:\ECOG\xiaoxiao\xx20221201\Block-3</t>
   </si>
   <si>
@@ -73,6 +139,9 @@
     <t>G:\ECOG\xiaoxiao\xx20221215\Block-1</t>
   </si>
   <si>
+    <t>G:\ECOG\xiaoxiao\xx20221216\Block-3</t>
+  </si>
+  <si>
     <t>G:\ECOG\xiaoxiao\xx20221215\Block-4</t>
   </si>
   <si>
@@ -85,16 +154,70 @@
     <t>Exported</t>
   </si>
   <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>Offset_2_128_4s</t>
+  </si>
+  <si>
+    <t>Offset_256_512_10s</t>
+  </si>
+  <si>
+    <t>Offset_Duration_Effect_4ms_16ms_Reg</t>
+  </si>
+  <si>
+    <t>Offset_Variance_Effect_4ms_16ms_sigma250_2_Reg</t>
+  </si>
+  <si>
     <t>Offset_2_128_4s_New</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offset_Duration_Effect_4ms_Reg_New</t>
+  </si>
+  <si>
+    <t>Offset_Duration_Effect_8ms_Reg_New</t>
+  </si>
+  <si>
+    <t>Offset_Variance_Effect_4ms_8ms_sigma250_2_Reg_500ms</t>
+  </si>
+  <si>
+    <t>tankPath</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221201\Block-1</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221201\Block-2</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221215\Block-2</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221216\Block-4</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221201\Block-3</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221201\Block-4</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221215\Block-1</t>
   </si>
   <si>
     <t>G:\ECOG\xiaoxiao\xx20221216\Block-3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20221216\Block-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221215\Block-4</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221215\Block-3</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221215\Block-5</t>
+  </si>
+  <si>
+    <t>Exported</t>
   </si>
   <si>
     <t>paradigm</t>
@@ -274,7 +397,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -327,11 +450,13 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
@@ -374,6 +499,8 @@
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -657,830 +784,830 @@
   <dimension ref="A1:C253"/>
   <sheetViews>
     <sheetView tabSelected="true" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" thickBottom="true" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" thickBottom="true" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.5" style="4" customWidth="true"/>
-    <col min="2" max="2" width="33.25" style="1" customWidth="true"/>
-    <col min="3" max="3" width="8.875" style="8" customWidth="true"/>
-    <col min="4" max="16384" width="8.875" style="4"/>
+    <col min="1" max="1" width="43.84375" style="4" customWidth="true"/>
+    <col min="2" max="2" width="34.2890625" style="1" customWidth="true"/>
+    <col min="3" max="3" width="9.51171875" style="8" customWidth="true"/>
+    <col min="4" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="27" customHeight="true" x14ac:dyDescent="0.2">
+    <row r="1" s="2" customFormat="true" ht="27" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" ht="14.25" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="C2" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="C3" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="C4" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="C5" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="C6" s="12">
         <v>1</v>
       </c>
     </row>
-    <row r="7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="C7" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="C8" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="C9" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="10" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="10" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>64</v>
+        <v>106</v>
       </c>
       <c r="C10" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="11" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="11" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>65</v>
+        <v>107</v>
       </c>
       <c r="C11" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="12" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="C12" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="13" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="13" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B13" s="10"/>
     </row>
-    <row r="14" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B14" s="6"/>
     </row>
-    <row r="15" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B15" s="6"/>
     </row>
-    <row r="16" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
     </row>
-    <row r="17" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B17" s="6"/>
     </row>
-    <row r="18" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="18" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B18" s="6"/>
     </row>
-    <row r="19" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="19" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B19" s="6"/>
     </row>
-    <row r="20" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="20" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B20" s="6"/>
     </row>
-    <row r="21" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="21" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B21" s="6"/>
     </row>
-    <row r="22" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B22" s="6"/>
     </row>
-    <row r="23" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="23" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B23" s="6"/>
     </row>
-    <row r="24" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="24" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B24" s="6"/>
     </row>
-    <row r="25" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B25" s="6"/>
     </row>
-    <row r="26" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B26" s="6"/>
     </row>
-    <row r="27" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="27" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B27" s="6"/>
     </row>
-    <row r="28" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="28" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B28" s="6"/>
     </row>
-    <row r="29" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B29" s="6"/>
     </row>
-    <row r="30" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="30" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B30" s="6"/>
     </row>
-    <row r="31" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="31" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B31" s="6"/>
     </row>
-    <row r="32" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="32" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B32" s="6"/>
     </row>
-    <row r="33" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="33" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B33" s="6"/>
     </row>
-    <row r="34" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="34" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B34" s="6"/>
     </row>
-    <row r="35" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="35" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B35" s="6"/>
     </row>
-    <row r="36" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="36" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B36" s="6"/>
     </row>
-    <row r="37" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="37" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B37" s="6"/>
     </row>
-    <row r="38" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="38" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B38" s="6"/>
     </row>
-    <row r="39" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="39" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B39" s="6"/>
     </row>
-    <row r="40" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="40" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B40" s="6"/>
     </row>
-    <row r="41" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="41" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B41" s="6"/>
     </row>
-    <row r="42" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="42" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B42" s="6"/>
     </row>
-    <row r="43" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="43" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B43" s="6"/>
     </row>
-    <row r="44" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="44" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B44" s="6"/>
     </row>
-    <row r="45" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="45" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B45" s="6"/>
     </row>
-    <row r="46" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="46" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B46" s="6"/>
     </row>
-    <row r="47" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="47" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B47" s="6"/>
     </row>
-    <row r="48" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="48" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B48" s="6"/>
     </row>
-    <row r="49" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="49" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B49" s="6"/>
     </row>
-    <row r="50" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="50" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B50" s="6"/>
     </row>
-    <row r="51" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="51" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B51" s="6"/>
     </row>
-    <row r="52" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="52" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B52" s="6"/>
     </row>
-    <row r="53" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="53" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B53" s="6"/>
     </row>
-    <row r="54" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="54" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B54" s="6"/>
     </row>
-    <row r="55" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="55" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B55" s="6"/>
     </row>
-    <row r="56" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="56" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B56" s="6"/>
     </row>
-    <row r="57" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="57" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B57" s="6"/>
     </row>
-    <row r="58" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="58" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B58" s="6"/>
     </row>
-    <row r="59" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="59" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B59" s="6"/>
     </row>
-    <row r="60" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="60" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B60" s="6"/>
     </row>
-    <row r="61" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="61" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B61" s="6"/>
     </row>
-    <row r="62" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="62" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B62" s="6"/>
     </row>
-    <row r="63" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="63" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B63" s="6"/>
     </row>
-    <row r="64" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="64" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B64" s="6"/>
     </row>
-    <row r="65" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="65" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B65" s="6"/>
     </row>
-    <row r="66" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="66" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B66" s="6"/>
     </row>
-    <row r="67" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="67" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B67" s="6"/>
     </row>
-    <row r="68" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="68" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B68" s="6"/>
     </row>
-    <row r="69" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="69" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B69" s="6"/>
     </row>
-    <row r="70" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="70" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B70" s="6"/>
     </row>
-    <row r="71" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="71" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B71" s="6"/>
     </row>
-    <row r="72" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="72" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B72" s="6"/>
     </row>
-    <row r="73" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="73" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B73" s="6"/>
     </row>
-    <row r="74" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="74" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B74" s="6"/>
     </row>
-    <row r="75" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="75" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B75" s="6"/>
     </row>
-    <row r="76" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="76" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B76" s="6"/>
     </row>
-    <row r="77" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="77" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B77" s="6"/>
     </row>
-    <row r="78" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="78" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B78" s="6"/>
     </row>
-    <row r="79" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="79" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B79" s="6"/>
     </row>
-    <row r="80" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="80" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B80" s="6"/>
     </row>
-    <row r="81" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="81" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B81" s="6"/>
     </row>
-    <row r="82" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="82" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B82" s="6"/>
     </row>
-    <row r="83" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="83" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B83" s="6"/>
     </row>
-    <row r="84" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="84" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B84" s="6"/>
     </row>
-    <row r="85" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="85" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B85" s="6"/>
     </row>
-    <row r="86" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="86" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B86" s="6"/>
     </row>
-    <row r="87" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="87" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B87" s="6"/>
     </row>
-    <row r="88" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="88" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B88" s="6"/>
     </row>
-    <row r="89" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="89" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B89" s="6"/>
     </row>
-    <row r="90" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="90" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B90" s="6"/>
     </row>
-    <row r="91" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="91" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B91" s="6"/>
     </row>
-    <row r="92" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="92" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B92" s="6"/>
     </row>
-    <row r="93" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="93" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B93" s="6"/>
     </row>
-    <row r="94" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="94" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B94" s="6"/>
     </row>
-    <row r="95" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="95" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B95" s="6"/>
     </row>
-    <row r="96" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="96" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B96" s="6"/>
     </row>
-    <row r="97" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="97" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B97" s="6"/>
     </row>
-    <row r="98" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="98" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B98" s="6"/>
     </row>
-    <row r="99" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="99" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B99" s="6"/>
     </row>
-    <row r="100" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="100" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B100" s="6"/>
     </row>
-    <row r="101" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="101" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B101" s="6"/>
     </row>
-    <row r="102" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="102" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B102" s="6"/>
     </row>
-    <row r="103" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="103" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B103" s="6"/>
     </row>
-    <row r="104" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="104" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B104" s="6"/>
     </row>
-    <row r="105" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="105" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B105" s="6"/>
     </row>
-    <row r="106" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="106" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B106" s="6"/>
     </row>
-    <row r="107" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="107" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B107" s="6"/>
     </row>
-    <row r="108" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="108" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B108" s="6"/>
     </row>
-    <row r="109" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="109" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B109" s="6"/>
     </row>
-    <row r="110" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="110" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B110" s="6"/>
     </row>
-    <row r="111" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="111" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B111" s="6"/>
     </row>
-    <row r="112" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="112" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B112" s="6"/>
     </row>
-    <row r="113" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="113" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B113" s="6"/>
     </row>
-    <row r="114" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="114" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B114" s="6"/>
     </row>
-    <row r="115" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="115" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B115" s="6"/>
     </row>
-    <row r="116" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="116" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B116" s="6"/>
     </row>
-    <row r="117" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="117" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B117" s="6"/>
     </row>
-    <row r="118" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="118" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B118" s="6"/>
     </row>
-    <row r="119" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="119" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B119" s="6"/>
     </row>
-    <row r="120" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="120" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B120" s="6"/>
     </row>
-    <row r="121" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="121" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B121" s="6"/>
     </row>
-    <row r="122" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="122" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B122" s="6"/>
     </row>
-    <row r="123" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="123" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B123" s="6"/>
     </row>
-    <row r="124" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="124" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B124" s="6"/>
     </row>
-    <row r="125" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="125" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B125" s="6"/>
     </row>
-    <row r="126" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="126" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B126" s="6"/>
     </row>
-    <row r="127" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="127" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B127" s="6"/>
     </row>
-    <row r="128" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="128" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B128" s="6"/>
     </row>
-    <row r="129" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="129" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B129" s="6"/>
     </row>
-    <row r="130" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="130" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B130" s="6"/>
     </row>
-    <row r="131" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="131" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B131" s="6"/>
     </row>
-    <row r="132" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="132" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B132" s="6"/>
     </row>
-    <row r="133" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="133" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B133" s="6"/>
     </row>
-    <row r="134" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="134" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B134" s="6"/>
     </row>
-    <row r="135" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="135" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B135" s="6"/>
     </row>
-    <row r="136" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="136" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B136" s="6"/>
     </row>
-    <row r="137" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="137" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B137" s="6"/>
     </row>
-    <row r="138" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="138" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B138" s="6"/>
     </row>
-    <row r="139" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="139" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B139" s="6"/>
     </row>
-    <row r="140" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="140" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B140" s="6"/>
     </row>
-    <row r="141" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="141" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B141" s="6"/>
     </row>
-    <row r="142" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="142" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B142" s="6"/>
     </row>
-    <row r="143" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="143" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B143" s="6"/>
     </row>
-    <row r="144" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="144" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B144" s="6"/>
     </row>
-    <row r="145" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="145" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B145" s="6"/>
     </row>
-    <row r="146" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="146" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B146" s="6"/>
     </row>
-    <row r="147" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="147" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B147" s="6"/>
     </row>
-    <row r="148" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="148" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B148" s="6"/>
     </row>
-    <row r="149" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="149" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B149" s="6"/>
     </row>
-    <row r="150" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="150" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B150" s="6"/>
     </row>
-    <row r="151" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="151" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B151" s="6"/>
     </row>
-    <row r="152" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="152" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B152" s="6"/>
     </row>
-    <row r="153" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="153" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B153" s="6"/>
     </row>
-    <row r="154" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="154" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B154" s="6"/>
     </row>
-    <row r="155" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="155" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B155" s="6"/>
     </row>
-    <row r="156" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="156" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B156" s="6"/>
     </row>
-    <row r="157" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="157" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B157" s="6"/>
     </row>
-    <row r="158" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="158" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B158" s="6"/>
     </row>
-    <row r="159" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="159" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B159" s="6"/>
     </row>
-    <row r="160" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="160" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B160" s="6"/>
     </row>
-    <row r="161" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="161" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B161" s="6"/>
     </row>
-    <row r="162" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="162" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B162" s="6"/>
     </row>
-    <row r="163" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="163" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B163" s="6"/>
     </row>
-    <row r="164" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="164" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B164" s="6"/>
     </row>
-    <row r="165" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="165" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B165" s="6"/>
     </row>
-    <row r="166" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="166" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B166" s="6"/>
     </row>
-    <row r="167" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="167" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B167" s="6"/>
     </row>
-    <row r="168" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="168" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B168" s="6"/>
     </row>
-    <row r="169" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="169" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B169" s="6"/>
     </row>
-    <row r="170" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="170" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B170" s="6"/>
     </row>
-    <row r="171" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="171" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B171" s="6"/>
     </row>
-    <row r="172" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="172" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B172" s="6"/>
     </row>
-    <row r="173" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="173" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B173" s="6"/>
     </row>
-    <row r="174" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="174" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B174" s="6"/>
     </row>
-    <row r="175" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="175" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B175" s="6"/>
     </row>
-    <row r="176" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="176" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B176" s="6"/>
     </row>
-    <row r="177" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="177" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B177" s="6"/>
     </row>
-    <row r="178" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="178" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B178" s="6"/>
     </row>
-    <row r="179" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="179" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B179" s="6"/>
     </row>
-    <row r="180" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="180" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B180" s="6"/>
     </row>
-    <row r="181" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="181" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B181" s="6"/>
     </row>
-    <row r="182" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="182" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B182" s="6"/>
     </row>
-    <row r="183" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="183" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B183" s="6"/>
     </row>
-    <row r="184" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="184" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B184" s="6"/>
     </row>
-    <row r="185" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="185" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B185" s="6"/>
     </row>
-    <row r="186" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="186" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B186" s="6"/>
     </row>
-    <row r="187" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="187" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B187" s="6"/>
     </row>
-    <row r="188" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="188" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B188" s="6"/>
     </row>
-    <row r="189" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="189" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B189" s="6"/>
     </row>
-    <row r="190" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="190" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B190" s="6"/>
     </row>
-    <row r="191" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="191" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B191" s="6"/>
     </row>
-    <row r="192" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="192" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B192" s="6"/>
     </row>
-    <row r="193" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="193" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B193" s="6"/>
     </row>
-    <row r="194" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="194" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B194" s="6"/>
     </row>
-    <row r="195" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="195" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B195" s="6"/>
     </row>
-    <row r="196" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="196" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B196" s="6"/>
     </row>
-    <row r="197" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="197" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B197" s="6"/>
     </row>
-    <row r="198" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="198" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B198" s="6"/>
     </row>
-    <row r="199" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="199" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B199" s="6"/>
     </row>
-    <row r="200" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="200" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B200" s="6"/>
     </row>
-    <row r="201" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="201" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B201" s="6"/>
     </row>
-    <row r="202" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="202" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B202" s="6"/>
     </row>
-    <row r="203" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="203" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B203" s="6"/>
     </row>
-    <row r="204" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="204" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B204" s="6"/>
     </row>
-    <row r="205" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="205" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B205" s="6"/>
     </row>
-    <row r="206" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="206" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B206" s="6"/>
     </row>
-    <row r="207" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="207" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B207" s="6"/>
     </row>
-    <row r="208" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="208" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B208" s="6"/>
     </row>
-    <row r="209" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="209" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B209" s="6"/>
     </row>
-    <row r="210" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="210" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B210" s="6"/>
     </row>
-    <row r="211" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="211" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B211" s="6"/>
     </row>
-    <row r="212" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="212" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B212" s="6"/>
     </row>
-    <row r="213" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="213" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B213" s="6"/>
     </row>
-    <row r="214" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="214" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B214" s="6"/>
     </row>
-    <row r="215" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="215" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B215" s="6"/>
     </row>
-    <row r="216" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="216" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B216" s="6"/>
     </row>
-    <row r="217" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="217" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B217" s="6"/>
     </row>
-    <row r="218" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="218" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B218" s="6"/>
     </row>
-    <row r="219" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="219" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B219" s="6"/>
     </row>
-    <row r="220" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="220" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B220" s="6"/>
     </row>
-    <row r="221" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="221" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B221" s="6"/>
     </row>
-    <row r="222" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="222" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B222" s="6"/>
     </row>
-    <row r="223" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="223" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B223" s="6"/>
     </row>
-    <row r="224" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="224" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B224" s="6"/>
     </row>
-    <row r="225" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="225" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B225" s="6"/>
     </row>
-    <row r="226" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="226" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B226" s="6"/>
     </row>
-    <row r="227" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="227" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B227" s="6"/>
     </row>
-    <row r="228" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="228" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B228" s="6"/>
     </row>
-    <row r="229" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="229" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B229" s="6"/>
     </row>
-    <row r="230" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="230" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B230" s="6"/>
     </row>
-    <row r="231" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="231" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B231" s="6"/>
     </row>
-    <row r="232" thickBot="true" x14ac:dyDescent="0.25">
+    <row r="232" thickBot="true" x14ac:dyDescent="0.3">
       <c r="B232" s="6"/>
     </row>
-    <row r="233" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="14.25" x14ac:dyDescent="0.2"/>
-    <row r="253" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="13.8" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SPR_Utils/ClickTrainLongTermFigure/Offset/ME_OffsetRecording_XX.xlsx
+++ b/SPR_Utils/ClickTrainLongTermFigure/Offset/ME_OffsetRecording_XX.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="true"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE7F817-5185-4E55-A315-B4A0236E2CCC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34F58EC-FEB3-4AFB-BBCC-54180E81B059}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4392"/>
   </bookViews>
@@ -20,7 +20,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="445">
+  <si>
+    <t>Offset_2_128_4s_New</t>
+  </si>
+  <si>
+    <t>Offset_Duration_Effect_4ms_Reg_New</t>
+  </si>
+  <si>
+    <t>Offset_Var_4ms_Last4_8_16</t>
+  </si>
   <si>
     <t>paradigm</t>
   </si>
@@ -49,6 +58,30 @@
     <t>Offset_Variance_Effect_4ms_8ms_sigma250_2_Reg_500ms</t>
   </si>
   <si>
+    <t>Offset_4ms_16ms_Int_last2</t>
+  </si>
+  <si>
+    <t>Offset_16ms_Int_SingleChange_last8</t>
+  </si>
+  <si>
+    <t>Offset_16ms_Int_SingleChange_LowHigh_last8</t>
+  </si>
+  <si>
+    <t>Offset_16ms_Int_SingleChange_LowHigh_last12</t>
+  </si>
+  <si>
+    <t>Offset_Var_4ms_Last4_8_16</t>
+  </si>
+  <si>
+    <t>Offset_Anesthesia_16_64_Awake</t>
+  </si>
+  <si>
+    <t>Offset_Anesthesia_16_64_Rate_20</t>
+  </si>
+  <si>
+    <t>Offset_Anesthesia_16_64_Rate_40</t>
+  </si>
+  <si>
     <t>tankPath</t>
   </si>
   <si>
@@ -76,15 +109,229 @@
     <t>G:\ECOG\xiaoxiao\xx20221216\Block-3</t>
   </si>
   <si>
+    <t>G:\ECOG\xiaoxiao\xx20221215\Block-3</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221215\Block-5</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230309\Block-2</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230401\Block-2</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230404\Block-3</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230404\Block-4</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230426\Block-3</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230531\Block-1</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230531\Block-4</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230531\Block-8</t>
+  </si>
+  <si>
+    <t>Exported</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230518\Block-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230519\Block-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230522\Block-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230523\Block-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230524\Block-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offset_Duration_Effect_8ms_Reg_New</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>G:\ECOG\xiaoxiao\xx20221215\Block-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230527\Block-3</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230527\Block-4</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230527\Block-5</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230529\Block-3</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230529\Block-4</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230529\Block-5</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>Offset_2_128_4s</t>
+  </si>
+  <si>
+    <t>Offset_256_512_10s</t>
+  </si>
+  <si>
+    <t>Offset_Duration_Effect_4ms_16ms_Reg</t>
+  </si>
+  <si>
+    <t>Offset_Variance_Effect_4ms_16ms_sigma250_2_Reg</t>
+  </si>
+  <si>
+    <t>Offset_2_128_4s_New</t>
+  </si>
+  <si>
+    <t>Offset_Duration_Effect_4ms_Reg_New</t>
+  </si>
+  <si>
+    <t>Offset_Duration_Effect_8ms_Reg_New</t>
+  </si>
+  <si>
+    <t>Offset_Variance_Effect_4ms_8ms_sigma250_2_Reg_500ms</t>
+  </si>
+  <si>
+    <t>Offset_4ms_16ms_Int_last2</t>
+  </si>
+  <si>
+    <t>Offset_16ms_Int_SingleChange_last8</t>
+  </si>
+  <si>
+    <t>Offset_16ms_Int_SingleChange_LowHigh_last8</t>
+  </si>
+  <si>
+    <t>Offset_16ms_Int_SingleChange_LowHigh_last12</t>
+  </si>
+  <si>
+    <t>Offset_Var_4ms_Last4_8_16</t>
+  </si>
+  <si>
+    <t>Offset_Anesthesia_16_64_Awake</t>
+  </si>
+  <si>
+    <t>Offset_Anesthesia_16_64_Rate_20</t>
+  </si>
+  <si>
+    <t>Offset_Anesthesia_16_64_Rate_40</t>
+  </si>
+  <si>
+    <t>tankPath</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221201\Block-1</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221201\Block-2</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221215\Block-2</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221216\Block-4</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221201\Block-3</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221201\Block-4</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221215\Block-1</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221216\Block-3</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230527\Block-3</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230529\Block-3</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221215\Block-4</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230527\Block-4</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230529\Block-4</t>
   </si>
   <si>
     <t>G:\ECOG\xiaoxiao\xx20221215\Block-3</t>
   </si>
   <si>
+    <t>G:\ECOG\xiaoxiao\xx20230527\Block-5</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230529\Block-5</t>
+  </si>
+  <si>
     <t>G:\ECOG\xiaoxiao\xx20221215\Block-5</t>
   </si>
   <si>
+    <t>G:\ECOG\xiaoxiao\xx20230309\Block-2</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230401\Block-2</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230404\Block-3</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230404\Block-4</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230426\Block-3</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230519\Block-5</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230518\Block-4</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230522\Block-2</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230523\Block-4</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230524\Block-1</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230531\Block-1</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230531\Block-4</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230531\Block-8</t>
+  </si>
+  <si>
     <t>Exported</t>
   </si>
   <si>
@@ -115,6 +362,30 @@
     <t>Offset_Variance_Effect_4ms_8ms_sigma250_2_Reg_500ms</t>
   </si>
   <si>
+    <t>Offset_4ms_16ms_Int_last2</t>
+  </si>
+  <si>
+    <t>Offset_16ms_Int_SingleChange_last8</t>
+  </si>
+  <si>
+    <t>Offset_16ms_Int_SingleChange_LowHigh_last8</t>
+  </si>
+  <si>
+    <t>Offset_16ms_Int_SingleChange_LowHigh_last12</t>
+  </si>
+  <si>
+    <t>Offset_Var_4ms_Last4_8_16</t>
+  </si>
+  <si>
+    <t>Offset_Anesthesia_16_64_Awake</t>
+  </si>
+  <si>
+    <t>Offset_Anesthesia_16_64_Rate_20</t>
+  </si>
+  <si>
+    <t>Offset_Anesthesia_16_64_Rate_40</t>
+  </si>
+  <si>
     <t>tankPath</t>
   </si>
   <si>
@@ -142,15 +413,72 @@
     <t>G:\ECOG\xiaoxiao\xx20221216\Block-3</t>
   </si>
   <si>
+    <t>G:\ECOG\xiaoxiao\xx20230527\Block-3</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230529\Block-3</t>
+  </si>
+  <si>
     <t>G:\ECOG\xiaoxiao\xx20221215\Block-4</t>
   </si>
   <si>
+    <t>G:\ECOG\xiaoxiao\xx20230527\Block-4</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230529\Block-4</t>
+  </si>
+  <si>
     <t>G:\ECOG\xiaoxiao\xx20221215\Block-3</t>
   </si>
   <si>
+    <t>G:\ECOG\xiaoxiao\xx20230527\Block-5</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230529\Block-5</t>
+  </si>
+  <si>
     <t>G:\ECOG\xiaoxiao\xx20221215\Block-5</t>
   </si>
   <si>
+    <t>G:\ECOG\xiaoxiao\xx20230309\Block-2</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230401\Block-2</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230404\Block-3</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230404\Block-4</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230426\Block-3</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230519\Block-5</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230518\Block-4</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230522\Block-2</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230523\Block-4</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230524\Block-1</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230531\Block-1</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230531\Block-4</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230531\Block-8</t>
+  </si>
+  <si>
     <t>Exported</t>
   </si>
   <si>
@@ -181,6 +509,30 @@
     <t>Offset_Variance_Effect_4ms_8ms_sigma250_2_Reg_500ms</t>
   </si>
   <si>
+    <t>Offset_4ms_16ms_Int_last2</t>
+  </si>
+  <si>
+    <t>Offset_16ms_Int_SingleChange_last8</t>
+  </si>
+  <si>
+    <t>Offset_16ms_Int_SingleChange_LowHigh_last8</t>
+  </si>
+  <si>
+    <t>Offset_16ms_Int_SingleChange_LowHigh_last12</t>
+  </si>
+  <si>
+    <t>Offset_Var_4ms_Last4_8_16</t>
+  </si>
+  <si>
+    <t>Offset_Anesthesia_16_64_Awake</t>
+  </si>
+  <si>
+    <t>Offset_Anesthesia_16_64_Rate_20</t>
+  </si>
+  <si>
+    <t>Offset_Anesthesia_16_64_Rate_40</t>
+  </si>
+  <si>
     <t>tankPath</t>
   </si>
   <si>
@@ -208,15 +560,72 @@
     <t>G:\ECOG\xiaoxiao\xx20221216\Block-3</t>
   </si>
   <si>
+    <t>G:\ECOG\xiaoxiao\xx20230527\Block-3</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230529\Block-3</t>
+  </si>
+  <si>
     <t>G:\ECOG\xiaoxiao\xx20221215\Block-4</t>
   </si>
   <si>
+    <t>G:\ECOG\xiaoxiao\xx20230527\Block-4</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230529\Block-4</t>
+  </si>
+  <si>
     <t>G:\ECOG\xiaoxiao\xx20221215\Block-3</t>
   </si>
   <si>
+    <t>G:\ECOG\xiaoxiao\xx20230527\Block-5</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230529\Block-5</t>
+  </si>
+  <si>
     <t>G:\ECOG\xiaoxiao\xx20221215\Block-5</t>
   </si>
   <si>
+    <t>G:\ECOG\xiaoxiao\xx20230309\Block-2</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230401\Block-2</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230404\Block-3</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230404\Block-4</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230426\Block-3</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230519\Block-5</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230518\Block-4</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230522\Block-2</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230523\Block-4</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230524\Block-1</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230531\Block-1</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230531\Block-4</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230531\Block-8</t>
+  </si>
+  <si>
     <t>Exported</t>
   </si>
   <si>
@@ -247,6 +656,30 @@
     <t>Offset_Variance_Effect_4ms_8ms_sigma250_2_Reg_500ms</t>
   </si>
   <si>
+    <t>Offset_4ms_16ms_Int_last2</t>
+  </si>
+  <si>
+    <t>Offset_16ms_Int_SingleChange_last8</t>
+  </si>
+  <si>
+    <t>Offset_16ms_Int_SingleChange_LowHigh_last8</t>
+  </si>
+  <si>
+    <t>Offset_16ms_Int_SingleChange_LowHigh_last12</t>
+  </si>
+  <si>
+    <t>Offset_Var_4ms_Last4_8_16</t>
+  </si>
+  <si>
+    <t>Offset_Anesthesia_16_64_Awake</t>
+  </si>
+  <si>
+    <t>Offset_Anesthesia_16_64_Rate_20</t>
+  </si>
+  <si>
+    <t>Offset_Anesthesia_16_64_Rate_40</t>
+  </si>
+  <si>
     <t>tankPath</t>
   </si>
   <si>
@@ -274,15 +707,72 @@
     <t>G:\ECOG\xiaoxiao\xx20221216\Block-3</t>
   </si>
   <si>
+    <t>G:\ECOG\xiaoxiao\xx20230527\Block-3</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230529\Block-3</t>
+  </si>
+  <si>
     <t>G:\ECOG\xiaoxiao\xx20221215\Block-4</t>
   </si>
   <si>
+    <t>G:\ECOG\xiaoxiao\xx20230527\Block-4</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230529\Block-4</t>
+  </si>
+  <si>
     <t>G:\ECOG\xiaoxiao\xx20221215\Block-3</t>
   </si>
   <si>
+    <t>G:\ECOG\xiaoxiao\xx20230527\Block-5</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230529\Block-5</t>
+  </si>
+  <si>
     <t>G:\ECOG\xiaoxiao\xx20221215\Block-5</t>
   </si>
   <si>
+    <t>G:\ECOG\xiaoxiao\xx20230309\Block-2</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230401\Block-2</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230404\Block-3</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230404\Block-4</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230426\Block-3</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230519\Block-5</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230518\Block-4</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230522\Block-2</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230523\Block-4</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230524\Block-1</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230531\Block-1</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230531\Block-4</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230531\Block-8</t>
+  </si>
+  <si>
     <t>Exported</t>
   </si>
   <si>
@@ -313,6 +803,30 @@
     <t>Offset_Variance_Effect_4ms_8ms_sigma250_2_Reg_500ms</t>
   </si>
   <si>
+    <t>Offset_4ms_16ms_Int_last2</t>
+  </si>
+  <si>
+    <t>Offset_16ms_Int_SingleChange_last8</t>
+  </si>
+  <si>
+    <t>Offset_16ms_Int_SingleChange_LowHigh_last8</t>
+  </si>
+  <si>
+    <t>Offset_16ms_Int_SingleChange_LowHigh_last12</t>
+  </si>
+  <si>
+    <t>Offset_Var_4ms_Last4_8_16</t>
+  </si>
+  <si>
+    <t>Offset_Anesthesia_16_64_Awake</t>
+  </si>
+  <si>
+    <t>Offset_Anesthesia_16_64_Rate_20</t>
+  </si>
+  <si>
+    <t>Offset_Anesthesia_16_64_Rate_40</t>
+  </si>
+  <si>
     <t>tankPath</t>
   </si>
   <si>
@@ -340,13 +854,511 @@
     <t>G:\ECOG\xiaoxiao\xx20221216\Block-3</t>
   </si>
   <si>
+    <t>G:\ECOG\xiaoxiao\xx20230527\Block-3</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230529\Block-3</t>
+  </si>
+  <si>
     <t>G:\ECOG\xiaoxiao\xx20221215\Block-4</t>
   </si>
   <si>
+    <t>G:\ECOG\xiaoxiao\xx20230527\Block-4</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230529\Block-4</t>
+  </si>
+  <si>
     <t>G:\ECOG\xiaoxiao\xx20221215\Block-3</t>
   </si>
   <si>
+    <t>G:\ECOG\xiaoxiao\xx20230527\Block-5</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230529\Block-5</t>
+  </si>
+  <si>
     <t>G:\ECOG\xiaoxiao\xx20221215\Block-5</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230309\Block-2</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230401\Block-2</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230404\Block-3</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230404\Block-4</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230426\Block-3</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230519\Block-5</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230518\Block-4</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230522\Block-2</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230523\Block-4</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230524\Block-1</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230531\Block-1</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230531\Block-4</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230531\Block-8</t>
+  </si>
+  <si>
+    <t>Exported</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>Offset_2_128_4s</t>
+  </si>
+  <si>
+    <t>Offset_256_512_10s</t>
+  </si>
+  <si>
+    <t>Offset_Duration_Effect_4ms_16ms_Reg</t>
+  </si>
+  <si>
+    <t>Offset_Variance_Effect_4ms_16ms_sigma250_2_Reg</t>
+  </si>
+  <si>
+    <t>Offset_2_128_4s_New</t>
+  </si>
+  <si>
+    <t>Offset_Duration_Effect_4ms_Reg_New</t>
+  </si>
+  <si>
+    <t>Offset_Duration_Effect_8ms_Reg_New</t>
+  </si>
+  <si>
+    <t>Offset_Variance_Effect_4ms_8ms_sigma250_2_Reg_500ms</t>
+  </si>
+  <si>
+    <t>Offset_4ms_16ms_Int_last2</t>
+  </si>
+  <si>
+    <t>Offset_16ms_Int_SingleChange_last8</t>
+  </si>
+  <si>
+    <t>Offset_16ms_Int_SingleChange_LowHigh_last8</t>
+  </si>
+  <si>
+    <t>Offset_16ms_Int_SingleChange_LowHigh_last12</t>
+  </si>
+  <si>
+    <t>Offset_Var_4ms_Last4_8_16</t>
+  </si>
+  <si>
+    <t>Offset_Anesthesia_16_64_Awake</t>
+  </si>
+  <si>
+    <t>Offset_Anesthesia_16_64_Rate_20</t>
+  </si>
+  <si>
+    <t>Offset_Anesthesia_16_64_Rate_40</t>
+  </si>
+  <si>
+    <t>tankPath</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221201\Block-1</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221201\Block-2</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221215\Block-2</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221216\Block-4</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221201\Block-3</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221201\Block-4</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221215\Block-1</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221216\Block-3</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230527\Block-3</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230529\Block-3</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221215\Block-4</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230527\Block-4</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230529\Block-4</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221215\Block-3</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230527\Block-5</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230529\Block-5</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221215\Block-5</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230309\Block-2</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230401\Block-2</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230404\Block-3</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230404\Block-4</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230426\Block-3</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230519\Block-5</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230518\Block-4</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230522\Block-2</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230523\Block-4</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230524\Block-1</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230531\Block-1</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230531\Block-4</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230531\Block-8</t>
+  </si>
+  <si>
+    <t>Exported</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>Offset_2_128_4s</t>
+  </si>
+  <si>
+    <t>Offset_256_512_10s</t>
+  </si>
+  <si>
+    <t>Offset_Duration_Effect_4ms_16ms_Reg</t>
+  </si>
+  <si>
+    <t>Offset_Variance_Effect_4ms_16ms_sigma250_2_Reg</t>
+  </si>
+  <si>
+    <t>Offset_2_128_4s_New</t>
+  </si>
+  <si>
+    <t>Offset_Duration_Effect_4ms_Reg_New</t>
+  </si>
+  <si>
+    <t>Offset_Duration_Effect_8ms_Reg_New</t>
+  </si>
+  <si>
+    <t>Offset_Variance_Effect_4ms_8ms_sigma250_2_Reg_500ms</t>
+  </si>
+  <si>
+    <t>Offset_4ms_16ms_Int_last2</t>
+  </si>
+  <si>
+    <t>Offset_16ms_Int_SingleChange_last8</t>
+  </si>
+  <si>
+    <t>Offset_16ms_Int_SingleChange_LowHigh_last8</t>
+  </si>
+  <si>
+    <t>Offset_16ms_Int_SingleChange_LowHigh_last12</t>
+  </si>
+  <si>
+    <t>Offset_Var_4ms_Last4_8_16</t>
+  </si>
+  <si>
+    <t>Offset_Anesthesia_16_64_Awake</t>
+  </si>
+  <si>
+    <t>Offset_Anesthesia_16_64_Rate_20</t>
+  </si>
+  <si>
+    <t>Offset_Anesthesia_16_64_Rate_40</t>
+  </si>
+  <si>
+    <t>tankPath</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221201\Block-1</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221201\Block-2</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221215\Block-2</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221216\Block-4</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221201\Block-3</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221201\Block-4</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221215\Block-1</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221216\Block-3</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230527\Block-3</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230529\Block-3</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221215\Block-4</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230527\Block-4</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230529\Block-4</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221215\Block-3</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230527\Block-5</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230529\Block-5</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221215\Block-5</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230309\Block-2</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230401\Block-2</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230404\Block-3</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230404\Block-4</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230426\Block-3</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230519\Block-5</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230518\Block-4</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230522\Block-2</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230523\Block-4</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230524\Block-1</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230531\Block-1</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230531\Block-4</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230531\Block-8</t>
+  </si>
+  <si>
+    <t>Exported</t>
+  </si>
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>Offset_2_128_4s</t>
+  </si>
+  <si>
+    <t>Offset_256_512_10s</t>
+  </si>
+  <si>
+    <t>Offset_Duration_Effect_4ms_16ms_Reg</t>
+  </si>
+  <si>
+    <t>Offset_Variance_Effect_4ms_16ms_sigma250_2_Reg</t>
+  </si>
+  <si>
+    <t>Offset_2_128_4s_New</t>
+  </si>
+  <si>
+    <t>Offset_Duration_Effect_4ms_Reg_New</t>
+  </si>
+  <si>
+    <t>Offset_Duration_Effect_8ms_Reg_New</t>
+  </si>
+  <si>
+    <t>Offset_Variance_Effect_4ms_8ms_sigma250_2_Reg_500ms</t>
+  </si>
+  <si>
+    <t>Offset_4ms_16ms_Int_last2</t>
+  </si>
+  <si>
+    <t>Offset_16ms_Int_SingleChange_last8</t>
+  </si>
+  <si>
+    <t>Offset_16ms_Int_SingleChange_LowHigh_last8</t>
+  </si>
+  <si>
+    <t>Offset_16ms_Int_SingleChange_LowHigh_last12</t>
+  </si>
+  <si>
+    <t>Offset_Var_4ms_Last4_8_16</t>
+  </si>
+  <si>
+    <t>Offset_Anesthesia_16_64_Awake</t>
+  </si>
+  <si>
+    <t>Offset_Anesthesia_16_64_Rate_20</t>
+  </si>
+  <si>
+    <t>Offset_Anesthesia_16_64_Rate_40</t>
+  </si>
+  <si>
+    <t>tankPath</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221201\Block-1</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221201\Block-2</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221215\Block-2</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221216\Block-4</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221201\Block-3</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221201\Block-4</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221215\Block-1</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221216\Block-3</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230527\Block-3</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230529\Block-3</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221215\Block-4</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230527\Block-4</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230529\Block-4</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221215\Block-3</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230527\Block-5</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230529\Block-5</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221215\Block-5</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230309\Block-2</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230401\Block-2</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230404\Block-3</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230404\Block-4</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230426\Block-3</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230519\Block-5</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230518\Block-4</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230522\Block-2</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230523\Block-4</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230524\Block-1</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230531\Block-1</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230531\Block-4</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230531\Block-8</t>
   </si>
   <si>
     <t>Exported</t>
@@ -397,7 +1409,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -448,6 +1460,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
     <border/>
     <border/>
     <border/>
@@ -456,7 +1486,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
@@ -497,10 +1527,23 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -781,15 +1824,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C23A6ACB-7C6B-4CD1-9AC1-822BCA547FA6}">
-  <dimension ref="A1:C253"/>
+  <dimension ref="A1:C264"/>
   <sheetViews>
-    <sheetView tabSelected="true" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="true" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" thickBottom="true" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.84375" style="4" customWidth="true"/>
+    <col min="1" max="1" width="49.06640625" style="4" customWidth="true"/>
     <col min="2" max="2" width="34.2890625" style="1" customWidth="true"/>
     <col min="3" max="3" width="9.51171875" style="8" customWidth="true"/>
     <col min="4" max="16384" width="8.88671875" style="4"/>
@@ -797,21 +1840,21 @@
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="27" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>88</v>
+        <v>396</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>97</v>
+        <v>413</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>109</v>
+        <v>444</v>
       </c>
     </row>
     <row r="2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>89</v>
+        <v>397</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>98</v>
+        <v>414</v>
       </c>
       <c r="C2" s="11">
         <v>1</v>
@@ -819,10 +1862,10 @@
     </row>
     <row r="3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>90</v>
+        <v>398</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>99</v>
+        <v>415</v>
       </c>
       <c r="C3" s="11">
         <v>1</v>
@@ -830,10 +1873,10 @@
     </row>
     <row r="4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>90</v>
+        <v>398</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>100</v>
+        <v>416</v>
       </c>
       <c r="C4" s="11">
         <v>1</v>
@@ -841,10 +1884,10 @@
     </row>
     <row r="5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>90</v>
+        <v>398</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>101</v>
+        <v>417</v>
       </c>
       <c r="C5" s="11">
         <v>1</v>
@@ -852,10 +1895,10 @@
     </row>
     <row r="6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>91</v>
+        <v>399</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>102</v>
+        <v>418</v>
       </c>
       <c r="C6" s="12">
         <v>1</v>
@@ -863,10 +1906,10 @@
     </row>
     <row r="7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>92</v>
+        <v>400</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>103</v>
+        <v>419</v>
       </c>
       <c r="C7" s="8">
         <v>1</v>
@@ -874,10 +1917,10 @@
     </row>
     <row r="8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>93</v>
+        <v>401</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>104</v>
+        <v>420</v>
       </c>
       <c r="C8" s="11">
         <v>1</v>
@@ -885,104 +1928,256 @@
     </row>
     <row r="9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>93</v>
+        <v>401</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>105</v>
+        <v>421</v>
       </c>
       <c r="C9" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="10" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>94</v>
+      <c r="A10" s="9" t="s">
+        <v>401</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="C10" s="8">
+        <v>422</v>
+      </c>
+      <c r="C10" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="11" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>95</v>
+      <c r="A11" s="9" t="s">
+        <v>401</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="C11" s="8">
+        <v>423</v>
+      </c>
+      <c r="C11" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="12" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>96</v>
+      <c r="A12" s="13" t="s">
+        <v>402</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>108</v>
+        <v>424</v>
       </c>
       <c r="C12" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="13" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B13" s="10"/>
+      <c r="A13" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="C13" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B14" s="6"/>
+      <c r="A14" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="C14" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B15" s="6"/>
+      <c r="A15" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="C15" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B16" s="6"/>
+      <c r="A16" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="C16" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B17" s="6"/>
+      <c r="A17" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="C17" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B18" s="6"/>
+      <c r="A18" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="C18" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B19" s="6"/>
+      <c r="A19" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="C19" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B20" s="6"/>
+      <c r="A20" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>432</v>
+      </c>
+      <c r="C20" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B21" s="6"/>
+      <c r="A21" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="C21" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B22" s="6"/>
+      <c r="A22" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>434</v>
+      </c>
+      <c r="C22" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="23" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B23" s="6"/>
+      <c r="A23" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="C23" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B24" s="6"/>
+      <c r="A24" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>436</v>
+      </c>
+      <c r="C24" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B25" s="6"/>
+      <c r="A25" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="C25" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B26" s="6"/>
+      <c r="A26" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>438</v>
+      </c>
+      <c r="C26" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B27" s="6"/>
+      <c r="A27" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="C27" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B28" s="6"/>
+      <c r="A28" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>440</v>
+      </c>
+      <c r="C28" s="8">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B29" s="6"/>
+      <c r="A29" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>441</v>
+      </c>
+      <c r="C29" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B30" s="6"/>
+      <c r="A30" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>442</v>
+      </c>
+      <c r="C30" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B31" s="6"/>
+      <c r="A31" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>443</v>
+      </c>
+      <c r="C31" s="8">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B32" s="6"/>
@@ -1584,20 +2779,42 @@
     <row r="231" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B231" s="6"/>
     </row>
-    <row r="232" thickBot="true" x14ac:dyDescent="0.3">
+    <row r="232" ht="13.8" x14ac:dyDescent="0.25">
       <c r="B232" s="6"/>
     </row>
-    <row r="233" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B233" s="6"/>
+    </row>
+    <row r="234" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B234" s="6"/>
+    </row>
+    <row r="235" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B235" s="6"/>
+    </row>
+    <row r="236" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B236" s="6"/>
+    </row>
+    <row r="237" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B237" s="6"/>
+    </row>
+    <row r="238" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B238" s="6"/>
+    </row>
+    <row r="239" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B239" s="6"/>
+    </row>
+    <row r="240" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B240" s="6"/>
+    </row>
+    <row r="241" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B241" s="6"/>
+    </row>
+    <row r="242" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="B242" s="6"/>
+    </row>
+    <row r="243" thickBot="true" x14ac:dyDescent="0.3">
+      <c r="B243" s="6"/>
+    </row>
     <row r="244" ht="13.8" x14ac:dyDescent="0.25"/>
     <row r="245" ht="13.8" x14ac:dyDescent="0.25"/>
     <row r="246" ht="13.8" x14ac:dyDescent="0.25"/>
@@ -1608,6 +2825,17 @@
     <row r="251" ht="13.8" x14ac:dyDescent="0.25"/>
     <row r="252" ht="13.8" x14ac:dyDescent="0.25"/>
     <row r="253" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="13.8" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SPR_Utils/ClickTrainLongTermFigure/Offset/ME_OffsetRecording_XX.xlsx
+++ b/SPR_Utils/ClickTrainLongTermFigure/Offset/ME_OffsetRecording_XX.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="true"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34F58EC-FEB3-4AFB-BBCC-54180E81B059}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60D91FC-7B9A-4123-B3F7-DF06430DD9F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="4392"/>
   </bookViews>
@@ -20,7 +20,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="147">
+  <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>Offset_2_128_4s</t>
+  </si>
+  <si>
+    <t>Offset_256_512_10s</t>
+  </si>
+  <si>
+    <t>Offset_Duration_Effect_4ms_16ms_Reg</t>
+  </si>
+  <si>
+    <t>Offset_Variance_Effect_4ms_16ms_sigma250_2_Reg</t>
+  </si>
   <si>
     <t>Offset_2_128_4s_New</t>
   </si>
@@ -28,9 +43,134 @@
     <t>Offset_Duration_Effect_4ms_Reg_New</t>
   </si>
   <si>
+    <t>Offset_Duration_Effect_8ms_Reg_New</t>
+  </si>
+  <si>
+    <t>Offset_Variance_Effect_4ms_8ms_sigma250_2_Reg_500ms</t>
+  </si>
+  <si>
+    <t>Offset_4ms_16ms_Int_last2</t>
+  </si>
+  <si>
+    <t>Offset_16ms_Int_SingleChange_last8</t>
+  </si>
+  <si>
+    <t>Offset_16ms_Int_SingleChange_LowHigh_last8</t>
+  </si>
+  <si>
+    <t>Offset_16ms_Int_SingleChange_LowHigh_last12</t>
+  </si>
+  <si>
     <t>Offset_Var_4ms_Last4_8_16</t>
   </si>
   <si>
+    <t>Offset_Anesthesia_16_64_Awake</t>
+  </si>
+  <si>
+    <t>Offset_Anesthesia_16_64_Rate_20</t>
+  </si>
+  <si>
+    <t>Offset_Anesthesia_16_64_Rate_40</t>
+  </si>
+  <si>
+    <t>tankPath</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221201\Block-1</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221201\Block-2</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221215\Block-2</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221216\Block-4</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221201\Block-3</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221201\Block-4</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221215\Block-1</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221216\Block-3</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230527\Block-3</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230529\Block-3</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221215\Block-4</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230527\Block-4</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230529\Block-4</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221215\Block-3</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230527\Block-5</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230529\Block-5</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221215\Block-5</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230309\Block-2</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230401\Block-2</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230404\Block-3</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230404\Block-4</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230426\Block-3</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230519\Block-5</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230518\Block-4</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230522\Block-2</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230531\Block-1</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230531\Block-4</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230531\Block-8</t>
+  </si>
+  <si>
+    <t>Exported</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230523\Block-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230524\Block-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>paradigm</t>
   </si>
   <si>
@@ -109,9 +249,30 @@
     <t>G:\ECOG\xiaoxiao\xx20221216\Block-3</t>
   </si>
   <si>
+    <t>G:\ECOG\xiaoxiao\xx20230527\Block-3</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230529\Block-3</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221215\Block-4</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230527\Block-4</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230529\Block-4</t>
+  </si>
+  <si>
     <t>G:\ECOG\xiaoxiao\xx20221215\Block-3</t>
   </si>
   <si>
+    <t>G:\ECOG\xiaoxiao\xx20230527\Block-5</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230529\Block-5</t>
+  </si>
+  <si>
     <t>G:\ECOG\xiaoxiao\xx20221215\Block-5</t>
   </si>
   <si>
@@ -130,6 +291,21 @@
     <t>G:\ECOG\xiaoxiao\xx20230426\Block-3</t>
   </si>
   <si>
+    <t>G:\ECOG\xiaoxiao\xx20230519\Block-5</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230518\Block-4</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230522\Block-2</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230523\Block-5</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230524\Block-2</t>
+  </si>
+  <si>
     <t>G:\ECOG\xiaoxiao\xx20230531\Block-1</t>
   </si>
   <si>
@@ -142,1214 +318,139 @@
     <t>Exported</t>
   </si>
   <si>
+    <t>paradigm</t>
+  </si>
+  <si>
+    <t>Offset_2_128_4s</t>
+  </si>
+  <si>
+    <t>Offset_256_512_10s</t>
+  </si>
+  <si>
+    <t>Offset_Duration_Effect_4ms_16ms_Reg</t>
+  </si>
+  <si>
+    <t>Offset_Variance_Effect_4ms_16ms_sigma250_2_Reg</t>
+  </si>
+  <si>
+    <t>Offset_2_128_4s_New</t>
+  </si>
+  <si>
+    <t>Offset_Duration_Effect_4ms_Reg_New</t>
+  </si>
+  <si>
+    <t>Offset_Duration_Effect_8ms_Reg_New</t>
+  </si>
+  <si>
+    <t>Offset_Variance_Effect_4ms_8ms_sigma250_2_Reg_500ms</t>
+  </si>
+  <si>
+    <t>Offset_4ms_16ms_Int_last2</t>
+  </si>
+  <si>
+    <t>Offset_16ms_Int_SingleChange_last8</t>
+  </si>
+  <si>
+    <t>Offset_16ms_Int_SingleChange_LowHigh_last8</t>
+  </si>
+  <si>
+    <t>Offset_16ms_Int_SingleChange_LowHigh_last12</t>
+  </si>
+  <si>
+    <t>Offset_Var_4ms_Last4_8_16</t>
+  </si>
+  <si>
+    <t>Offset_Anesthesia_16_64_Awake</t>
+  </si>
+  <si>
+    <t>Offset_Anesthesia_16_64_Rate_20</t>
+  </si>
+  <si>
+    <t>Offset_Anesthesia_16_64_Rate_40</t>
+  </si>
+  <si>
+    <t>tankPath</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221201\Block-1</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221201\Block-2</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221215\Block-2</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221216\Block-4</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221201\Block-3</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221201\Block-4</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221215\Block-1</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221216\Block-3</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230527\Block-3</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230529\Block-3</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221215\Block-4</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230527\Block-4</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230529\Block-4</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221215\Block-3</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230527\Block-5</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230529\Block-5</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20221215\Block-5</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230309\Block-2</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230401\Block-2</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230404\Block-3</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230404\Block-4</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230426\Block-3</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230519\Block-5</t>
+  </si>
+  <si>
     <t>G:\ECOG\xiaoxiao\xx20230518\Block-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230519\Block-5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>G:\ECOG\xiaoxiao\xx20230522\Block-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230523\Block-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230524\Block-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Offset_Duration_Effect_8ms_Reg_New</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20221215\Block-4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230527\Block-3</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230527\Block-4</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230527\Block-5</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230529\Block-3</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230529\Block-4</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230529\Block-5</t>
-  </si>
-  <si>
-    <t>paradigm</t>
-  </si>
-  <si>
-    <t>Offset_2_128_4s</t>
-  </si>
-  <si>
-    <t>Offset_256_512_10s</t>
-  </si>
-  <si>
-    <t>Offset_Duration_Effect_4ms_16ms_Reg</t>
-  </si>
-  <si>
-    <t>Offset_Variance_Effect_4ms_16ms_sigma250_2_Reg</t>
-  </si>
-  <si>
-    <t>Offset_2_128_4s_New</t>
-  </si>
-  <si>
-    <t>Offset_Duration_Effect_4ms_Reg_New</t>
-  </si>
-  <si>
-    <t>Offset_Duration_Effect_8ms_Reg_New</t>
-  </si>
-  <si>
-    <t>Offset_Variance_Effect_4ms_8ms_sigma250_2_Reg_500ms</t>
-  </si>
-  <si>
-    <t>Offset_4ms_16ms_Int_last2</t>
-  </si>
-  <si>
-    <t>Offset_16ms_Int_SingleChange_last8</t>
-  </si>
-  <si>
-    <t>Offset_16ms_Int_SingleChange_LowHigh_last8</t>
-  </si>
-  <si>
-    <t>Offset_16ms_Int_SingleChange_LowHigh_last12</t>
-  </si>
-  <si>
-    <t>Offset_Var_4ms_Last4_8_16</t>
-  </si>
-  <si>
-    <t>Offset_Anesthesia_16_64_Awake</t>
-  </si>
-  <si>
-    <t>Offset_Anesthesia_16_64_Rate_20</t>
-  </si>
-  <si>
-    <t>Offset_Anesthesia_16_64_Rate_40</t>
-  </si>
-  <si>
-    <t>tankPath</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20221201\Block-1</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20221201\Block-2</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20221215\Block-2</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20221216\Block-4</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20221201\Block-3</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20221201\Block-4</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20221215\Block-1</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20221216\Block-3</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230527\Block-3</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230529\Block-3</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20221215\Block-4</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230527\Block-4</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230529\Block-4</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20221215\Block-3</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230527\Block-5</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230529\Block-5</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20221215\Block-5</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230309\Block-2</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230401\Block-2</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230404\Block-3</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230404\Block-4</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230426\Block-3</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230519\Block-5</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230518\Block-4</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230522\Block-2</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230523\Block-4</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230524\Block-1</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230531\Block-1</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230531\Block-4</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230531\Block-8</t>
-  </si>
-  <si>
-    <t>Exported</t>
-  </si>
-  <si>
-    <t>paradigm</t>
-  </si>
-  <si>
-    <t>Offset_2_128_4s</t>
-  </si>
-  <si>
-    <t>Offset_256_512_10s</t>
-  </si>
-  <si>
-    <t>Offset_Duration_Effect_4ms_16ms_Reg</t>
-  </si>
-  <si>
-    <t>Offset_Variance_Effect_4ms_16ms_sigma250_2_Reg</t>
-  </si>
-  <si>
-    <t>Offset_2_128_4s_New</t>
-  </si>
-  <si>
-    <t>Offset_Duration_Effect_4ms_Reg_New</t>
-  </si>
-  <si>
-    <t>Offset_Duration_Effect_8ms_Reg_New</t>
-  </si>
-  <si>
-    <t>Offset_Variance_Effect_4ms_8ms_sigma250_2_Reg_500ms</t>
-  </si>
-  <si>
-    <t>Offset_4ms_16ms_Int_last2</t>
-  </si>
-  <si>
-    <t>Offset_16ms_Int_SingleChange_last8</t>
-  </si>
-  <si>
-    <t>Offset_16ms_Int_SingleChange_LowHigh_last8</t>
-  </si>
-  <si>
-    <t>Offset_16ms_Int_SingleChange_LowHigh_last12</t>
-  </si>
-  <si>
-    <t>Offset_Var_4ms_Last4_8_16</t>
-  </si>
-  <si>
-    <t>Offset_Anesthesia_16_64_Awake</t>
-  </si>
-  <si>
-    <t>Offset_Anesthesia_16_64_Rate_20</t>
-  </si>
-  <si>
-    <t>Offset_Anesthesia_16_64_Rate_40</t>
-  </si>
-  <si>
-    <t>tankPath</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20221201\Block-1</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20221201\Block-2</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20221215\Block-2</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20221216\Block-4</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20221201\Block-3</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20221201\Block-4</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20221215\Block-1</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20221216\Block-3</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230527\Block-3</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230529\Block-3</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20221215\Block-4</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230527\Block-4</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230529\Block-4</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20221215\Block-3</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230527\Block-5</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230529\Block-5</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20221215\Block-5</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230309\Block-2</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230401\Block-2</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230404\Block-3</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230404\Block-4</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230426\Block-3</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230519\Block-5</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230518\Block-4</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230522\Block-2</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230523\Block-4</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230524\Block-1</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230531\Block-1</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230531\Block-4</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230531\Block-8</t>
-  </si>
-  <si>
-    <t>Exported</t>
-  </si>
-  <si>
-    <t>paradigm</t>
-  </si>
-  <si>
-    <t>Offset_2_128_4s</t>
-  </si>
-  <si>
-    <t>Offset_256_512_10s</t>
-  </si>
-  <si>
-    <t>Offset_Duration_Effect_4ms_16ms_Reg</t>
-  </si>
-  <si>
-    <t>Offset_Variance_Effect_4ms_16ms_sigma250_2_Reg</t>
-  </si>
-  <si>
-    <t>Offset_2_128_4s_New</t>
-  </si>
-  <si>
-    <t>Offset_Duration_Effect_4ms_Reg_New</t>
-  </si>
-  <si>
-    <t>Offset_Duration_Effect_8ms_Reg_New</t>
-  </si>
-  <si>
-    <t>Offset_Variance_Effect_4ms_8ms_sigma250_2_Reg_500ms</t>
-  </si>
-  <si>
-    <t>Offset_4ms_16ms_Int_last2</t>
-  </si>
-  <si>
-    <t>Offset_16ms_Int_SingleChange_last8</t>
-  </si>
-  <si>
-    <t>Offset_16ms_Int_SingleChange_LowHigh_last8</t>
-  </si>
-  <si>
-    <t>Offset_16ms_Int_SingleChange_LowHigh_last12</t>
-  </si>
-  <si>
-    <t>Offset_Var_4ms_Last4_8_16</t>
-  </si>
-  <si>
-    <t>Offset_Anesthesia_16_64_Awake</t>
-  </si>
-  <si>
-    <t>Offset_Anesthesia_16_64_Rate_20</t>
-  </si>
-  <si>
-    <t>Offset_Anesthesia_16_64_Rate_40</t>
-  </si>
-  <si>
-    <t>tankPath</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20221201\Block-1</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20221201\Block-2</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20221215\Block-2</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20221216\Block-4</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20221201\Block-3</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20221201\Block-4</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20221215\Block-1</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20221216\Block-3</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230527\Block-3</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230529\Block-3</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20221215\Block-4</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230527\Block-4</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230529\Block-4</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20221215\Block-3</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230527\Block-5</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230529\Block-5</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20221215\Block-5</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230309\Block-2</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230401\Block-2</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230404\Block-3</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230404\Block-4</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230426\Block-3</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230519\Block-5</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230518\Block-4</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230522\Block-2</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230523\Block-4</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230524\Block-1</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230531\Block-1</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230531\Block-4</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230531\Block-8</t>
-  </si>
-  <si>
-    <t>Exported</t>
-  </si>
-  <si>
-    <t>paradigm</t>
-  </si>
-  <si>
-    <t>Offset_2_128_4s</t>
-  </si>
-  <si>
-    <t>Offset_256_512_10s</t>
-  </si>
-  <si>
-    <t>Offset_Duration_Effect_4ms_16ms_Reg</t>
-  </si>
-  <si>
-    <t>Offset_Variance_Effect_4ms_16ms_sigma250_2_Reg</t>
-  </si>
-  <si>
-    <t>Offset_2_128_4s_New</t>
-  </si>
-  <si>
-    <t>Offset_Duration_Effect_4ms_Reg_New</t>
-  </si>
-  <si>
-    <t>Offset_Duration_Effect_8ms_Reg_New</t>
-  </si>
-  <si>
-    <t>Offset_Variance_Effect_4ms_8ms_sigma250_2_Reg_500ms</t>
-  </si>
-  <si>
-    <t>Offset_4ms_16ms_Int_last2</t>
-  </si>
-  <si>
-    <t>Offset_16ms_Int_SingleChange_last8</t>
-  </si>
-  <si>
-    <t>Offset_16ms_Int_SingleChange_LowHigh_last8</t>
-  </si>
-  <si>
-    <t>Offset_16ms_Int_SingleChange_LowHigh_last12</t>
-  </si>
-  <si>
-    <t>Offset_Var_4ms_Last4_8_16</t>
-  </si>
-  <si>
-    <t>Offset_Anesthesia_16_64_Awake</t>
-  </si>
-  <si>
-    <t>Offset_Anesthesia_16_64_Rate_20</t>
-  </si>
-  <si>
-    <t>Offset_Anesthesia_16_64_Rate_40</t>
-  </si>
-  <si>
-    <t>tankPath</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20221201\Block-1</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20221201\Block-2</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20221215\Block-2</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20221216\Block-4</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20221201\Block-3</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20221201\Block-4</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20221215\Block-1</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20221216\Block-3</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230527\Block-3</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230529\Block-3</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20221215\Block-4</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230527\Block-4</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230529\Block-4</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20221215\Block-3</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230527\Block-5</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230529\Block-5</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20221215\Block-5</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230309\Block-2</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230401\Block-2</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230404\Block-3</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230404\Block-4</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230426\Block-3</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230519\Block-5</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230518\Block-4</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230522\Block-2</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230523\Block-4</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230524\Block-1</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230531\Block-1</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230531\Block-4</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230531\Block-8</t>
-  </si>
-  <si>
-    <t>Exported</t>
-  </si>
-  <si>
-    <t>paradigm</t>
-  </si>
-  <si>
-    <t>Offset_2_128_4s</t>
-  </si>
-  <si>
-    <t>Offset_256_512_10s</t>
-  </si>
-  <si>
-    <t>Offset_Duration_Effect_4ms_16ms_Reg</t>
-  </si>
-  <si>
-    <t>Offset_Variance_Effect_4ms_16ms_sigma250_2_Reg</t>
-  </si>
-  <si>
-    <t>Offset_2_128_4s_New</t>
-  </si>
-  <si>
-    <t>Offset_Duration_Effect_4ms_Reg_New</t>
-  </si>
-  <si>
-    <t>Offset_Duration_Effect_8ms_Reg_New</t>
-  </si>
-  <si>
-    <t>Offset_Variance_Effect_4ms_8ms_sigma250_2_Reg_500ms</t>
-  </si>
-  <si>
-    <t>Offset_4ms_16ms_Int_last2</t>
-  </si>
-  <si>
-    <t>Offset_16ms_Int_SingleChange_last8</t>
-  </si>
-  <si>
-    <t>Offset_16ms_Int_SingleChange_LowHigh_last8</t>
-  </si>
-  <si>
-    <t>Offset_16ms_Int_SingleChange_LowHigh_last12</t>
-  </si>
-  <si>
-    <t>Offset_Var_4ms_Last4_8_16</t>
-  </si>
-  <si>
-    <t>Offset_Anesthesia_16_64_Awake</t>
-  </si>
-  <si>
-    <t>Offset_Anesthesia_16_64_Rate_20</t>
-  </si>
-  <si>
-    <t>Offset_Anesthesia_16_64_Rate_40</t>
-  </si>
-  <si>
-    <t>tankPath</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20221201\Block-1</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20221201\Block-2</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20221215\Block-2</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20221216\Block-4</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20221201\Block-3</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20221201\Block-4</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20221215\Block-1</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20221216\Block-3</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230527\Block-3</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230529\Block-3</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20221215\Block-4</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230527\Block-4</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230529\Block-4</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20221215\Block-3</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230527\Block-5</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230529\Block-5</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20221215\Block-5</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230309\Block-2</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230401\Block-2</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230404\Block-3</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230404\Block-4</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230426\Block-3</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230519\Block-5</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230518\Block-4</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230522\Block-2</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230523\Block-4</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230524\Block-1</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230531\Block-1</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230531\Block-4</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230531\Block-8</t>
-  </si>
-  <si>
-    <t>Exported</t>
-  </si>
-  <si>
-    <t>paradigm</t>
-  </si>
-  <si>
-    <t>Offset_2_128_4s</t>
-  </si>
-  <si>
-    <t>Offset_256_512_10s</t>
-  </si>
-  <si>
-    <t>Offset_Duration_Effect_4ms_16ms_Reg</t>
-  </si>
-  <si>
-    <t>Offset_Variance_Effect_4ms_16ms_sigma250_2_Reg</t>
-  </si>
-  <si>
-    <t>Offset_2_128_4s_New</t>
-  </si>
-  <si>
-    <t>Offset_Duration_Effect_4ms_Reg_New</t>
-  </si>
-  <si>
-    <t>Offset_Duration_Effect_8ms_Reg_New</t>
-  </si>
-  <si>
-    <t>Offset_Variance_Effect_4ms_8ms_sigma250_2_Reg_500ms</t>
-  </si>
-  <si>
-    <t>Offset_4ms_16ms_Int_last2</t>
-  </si>
-  <si>
-    <t>Offset_16ms_Int_SingleChange_last8</t>
-  </si>
-  <si>
-    <t>Offset_16ms_Int_SingleChange_LowHigh_last8</t>
-  </si>
-  <si>
-    <t>Offset_16ms_Int_SingleChange_LowHigh_last12</t>
-  </si>
-  <si>
-    <t>Offset_Var_4ms_Last4_8_16</t>
-  </si>
-  <si>
-    <t>Offset_Anesthesia_16_64_Awake</t>
-  </si>
-  <si>
-    <t>Offset_Anesthesia_16_64_Rate_20</t>
-  </si>
-  <si>
-    <t>Offset_Anesthesia_16_64_Rate_40</t>
-  </si>
-  <si>
-    <t>tankPath</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20221201\Block-1</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20221201\Block-2</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20221215\Block-2</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20221216\Block-4</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20221201\Block-3</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20221201\Block-4</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20221215\Block-1</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20221216\Block-3</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230527\Block-3</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230529\Block-3</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20221215\Block-4</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230527\Block-4</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230529\Block-4</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20221215\Block-3</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230527\Block-5</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230529\Block-5</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20221215\Block-5</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230309\Block-2</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230401\Block-2</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230404\Block-3</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230404\Block-4</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230426\Block-3</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230519\Block-5</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230518\Block-4</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230522\Block-2</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230523\Block-4</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230524\Block-1</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230531\Block-1</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230531\Block-4</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230531\Block-8</t>
-  </si>
-  <si>
-    <t>Exported</t>
-  </si>
-  <si>
-    <t>paradigm</t>
-  </si>
-  <si>
-    <t>Offset_2_128_4s</t>
-  </si>
-  <si>
-    <t>Offset_256_512_10s</t>
-  </si>
-  <si>
-    <t>Offset_Duration_Effect_4ms_16ms_Reg</t>
-  </si>
-  <si>
-    <t>Offset_Variance_Effect_4ms_16ms_sigma250_2_Reg</t>
-  </si>
-  <si>
-    <t>Offset_2_128_4s_New</t>
-  </si>
-  <si>
-    <t>Offset_Duration_Effect_4ms_Reg_New</t>
-  </si>
-  <si>
-    <t>Offset_Duration_Effect_8ms_Reg_New</t>
-  </si>
-  <si>
-    <t>Offset_Variance_Effect_4ms_8ms_sigma250_2_Reg_500ms</t>
-  </si>
-  <si>
-    <t>Offset_4ms_16ms_Int_last2</t>
-  </si>
-  <si>
-    <t>Offset_16ms_Int_SingleChange_last8</t>
-  </si>
-  <si>
-    <t>Offset_16ms_Int_SingleChange_LowHigh_last8</t>
-  </si>
-  <si>
-    <t>Offset_16ms_Int_SingleChange_LowHigh_last12</t>
-  </si>
-  <si>
-    <t>Offset_Var_4ms_Last4_8_16</t>
-  </si>
-  <si>
-    <t>Offset_Anesthesia_16_64_Awake</t>
-  </si>
-  <si>
-    <t>Offset_Anesthesia_16_64_Rate_20</t>
-  </si>
-  <si>
-    <t>Offset_Anesthesia_16_64_Rate_40</t>
-  </si>
-  <si>
-    <t>tankPath</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20221201\Block-1</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20221201\Block-2</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20221215\Block-2</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20221216\Block-4</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20221201\Block-3</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20221201\Block-4</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20221215\Block-1</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20221216\Block-3</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230527\Block-3</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230529\Block-3</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20221215\Block-4</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230527\Block-4</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230529\Block-4</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20221215\Block-3</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230527\Block-5</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230529\Block-5</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20221215\Block-5</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230309\Block-2</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230401\Block-2</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230404\Block-3</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230404\Block-4</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230426\Block-3</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230519\Block-5</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230518\Block-4</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230522\Block-2</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230523\Block-4</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230524\Block-1</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230531\Block-1</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230531\Block-4</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230531\Block-8</t>
-  </si>
-  <si>
-    <t>Exported</t>
-  </si>
-  <si>
-    <t>paradigm</t>
-  </si>
-  <si>
-    <t>Offset_2_128_4s</t>
-  </si>
-  <si>
-    <t>Offset_256_512_10s</t>
-  </si>
-  <si>
-    <t>Offset_Duration_Effect_4ms_16ms_Reg</t>
-  </si>
-  <si>
-    <t>Offset_Variance_Effect_4ms_16ms_sigma250_2_Reg</t>
-  </si>
-  <si>
-    <t>Offset_2_128_4s_New</t>
-  </si>
-  <si>
-    <t>Offset_Duration_Effect_4ms_Reg_New</t>
-  </si>
-  <si>
-    <t>Offset_Duration_Effect_8ms_Reg_New</t>
-  </si>
-  <si>
-    <t>Offset_Variance_Effect_4ms_8ms_sigma250_2_Reg_500ms</t>
-  </si>
-  <si>
-    <t>Offset_4ms_16ms_Int_last2</t>
-  </si>
-  <si>
-    <t>Offset_16ms_Int_SingleChange_last8</t>
-  </si>
-  <si>
-    <t>Offset_16ms_Int_SingleChange_LowHigh_last8</t>
-  </si>
-  <si>
-    <t>Offset_16ms_Int_SingleChange_LowHigh_last12</t>
-  </si>
-  <si>
-    <t>Offset_Var_4ms_Last4_8_16</t>
-  </si>
-  <si>
-    <t>Offset_Anesthesia_16_64_Awake</t>
-  </si>
-  <si>
-    <t>Offset_Anesthesia_16_64_Rate_20</t>
-  </si>
-  <si>
-    <t>Offset_Anesthesia_16_64_Rate_40</t>
-  </si>
-  <si>
-    <t>tankPath</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20221201\Block-1</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20221201\Block-2</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20221215\Block-2</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20221216\Block-4</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20221201\Block-3</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20221201\Block-4</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20221215\Block-1</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20221216\Block-3</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230527\Block-3</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230529\Block-3</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20221215\Block-4</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230527\Block-4</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230529\Block-4</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20221215\Block-3</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230527\Block-5</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230529\Block-5</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20221215\Block-5</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230309\Block-2</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230401\Block-2</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230404\Block-3</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230404\Block-4</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230426\Block-3</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230519\Block-5</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230518\Block-4</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230522\Block-2</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230523\Block-4</t>
-  </si>
-  <si>
-    <t>G:\ECOG\xiaoxiao\xx20230524\Block-1</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230523\Block-5</t>
+  </si>
+  <si>
+    <t>G:\ECOG\xiaoxiao\xx20230524\Block-2</t>
   </si>
   <si>
     <t>G:\ECOG\xiaoxiao\xx20230531\Block-1</t>
@@ -1409,7 +510,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1475,18 +576,11 @@
       <diagonal/>
     </border>
     <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
@@ -1537,13 +631,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1827,34 +914,34 @@
   <dimension ref="A1:C264"/>
   <sheetViews>
     <sheetView tabSelected="true" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" thickBottom="true" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="49.06640625" style="4" customWidth="true"/>
-    <col min="2" max="2" width="34.2890625" style="1" customWidth="true"/>
-    <col min="3" max="3" width="9.51171875" style="8" customWidth="true"/>
+    <col min="1" max="1" width="47.625" style="4" customWidth="true"/>
+    <col min="2" max="2" width="33.25" style="1" customWidth="true"/>
+    <col min="3" max="3" width="8.875" style="8" customWidth="true"/>
     <col min="4" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="27" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>396</v>
+        <v>98</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>413</v>
+        <v>115</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>444</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>397</v>
+        <v>99</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>414</v>
+        <v>116</v>
       </c>
       <c r="C2" s="11">
         <v>1</v>
@@ -1862,10 +949,10 @@
     </row>
     <row r="3" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>398</v>
+        <v>100</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>415</v>
+        <v>117</v>
       </c>
       <c r="C3" s="11">
         <v>1</v>
@@ -1873,10 +960,10 @@
     </row>
     <row r="4" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>398</v>
+        <v>100</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>416</v>
+        <v>118</v>
       </c>
       <c r="C4" s="11">
         <v>1</v>
@@ -1884,10 +971,10 @@
     </row>
     <row r="5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>398</v>
+        <v>100</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>417</v>
+        <v>119</v>
       </c>
       <c r="C5" s="11">
         <v>1</v>
@@ -1895,10 +982,10 @@
     </row>
     <row r="6" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>399</v>
+        <v>101</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>418</v>
+        <v>120</v>
       </c>
       <c r="C6" s="12">
         <v>1</v>
@@ -1906,10 +993,10 @@
     </row>
     <row r="7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>400</v>
+        <v>102</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>419</v>
+        <v>121</v>
       </c>
       <c r="C7" s="8">
         <v>1</v>
@@ -1917,10 +1004,10 @@
     </row>
     <row r="8" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>401</v>
+        <v>103</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>420</v>
+        <v>122</v>
       </c>
       <c r="C8" s="11">
         <v>1</v>
@@ -1928,10 +1015,10 @@
     </row>
     <row r="9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>401</v>
+        <v>103</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>421</v>
+        <v>123</v>
       </c>
       <c r="C9" s="11">
         <v>1</v>
@@ -1939,10 +1026,10 @@
     </row>
     <row r="10" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>401</v>
+        <v>103</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>422</v>
+        <v>124</v>
       </c>
       <c r="C10" s="11">
         <v>1</v>
@@ -1950,10 +1037,10 @@
     </row>
     <row r="11" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>401</v>
+        <v>103</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>423</v>
+        <v>125</v>
       </c>
       <c r="C11" s="11">
         <v>1</v>
@@ -1961,10 +1048,10 @@
     </row>
     <row r="12" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>402</v>
+        <v>104</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>424</v>
+        <v>126</v>
       </c>
       <c r="C12" s="8">
         <v>1</v>
@@ -1972,10 +1059,10 @@
     </row>
     <row r="13" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>402</v>
+        <v>104</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>425</v>
+        <v>127</v>
       </c>
       <c r="C13" s="8">
         <v>1</v>
@@ -1983,10 +1070,10 @@
     </row>
     <row r="14" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>402</v>
+        <v>104</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>426</v>
+        <v>128</v>
       </c>
       <c r="C14" s="8">
         <v>1</v>
@@ -1994,10 +1081,10 @@
     </row>
     <row r="15" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>403</v>
+        <v>105</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>427</v>
+        <v>129</v>
       </c>
       <c r="C15" s="8">
         <v>1</v>
@@ -2005,10 +1092,10 @@
     </row>
     <row r="16" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>403</v>
+        <v>105</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>428</v>
+        <v>130</v>
       </c>
       <c r="C16" s="8">
         <v>1</v>
@@ -2016,10 +1103,10 @@
     </row>
     <row r="17" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>403</v>
+        <v>105</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>429</v>
+        <v>131</v>
       </c>
       <c r="C17" s="8">
         <v>1</v>
@@ -2027,10 +1114,10 @@
     </row>
     <row r="18" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>404</v>
+        <v>106</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>430</v>
+        <v>132</v>
       </c>
       <c r="C18" s="8">
         <v>1</v>
@@ -2038,10 +1125,10 @@
     </row>
     <row r="19" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>405</v>
+        <v>107</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>431</v>
+        <v>133</v>
       </c>
       <c r="C19" s="8">
         <v>1</v>
@@ -2049,10 +1136,10 @@
     </row>
     <row r="20" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>406</v>
+        <v>108</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>432</v>
+        <v>134</v>
       </c>
       <c r="C20" s="8">
         <v>1</v>
@@ -2060,10 +1147,10 @@
     </row>
     <row r="21" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>407</v>
+        <v>109</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>433</v>
+        <v>135</v>
       </c>
       <c r="C21" s="8">
         <v>1</v>
@@ -2071,10 +1158,10 @@
     </row>
     <row r="22" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>408</v>
+        <v>110</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>434</v>
+        <v>136</v>
       </c>
       <c r="C22" s="8">
         <v>1</v>
@@ -2082,10 +1169,10 @@
     </row>
     <row r="23" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>409</v>
+        <v>111</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>435</v>
+        <v>137</v>
       </c>
       <c r="C23" s="8">
         <v>1</v>
@@ -2093,10 +1180,10 @@
     </row>
     <row r="24" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>409</v>
+        <v>111</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>436</v>
+        <v>138</v>
       </c>
       <c r="C24" s="8">
         <v>1</v>
@@ -2104,54 +1191,54 @@
     </row>
     <row r="25" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>409</v>
+        <v>111</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>437</v>
+        <v>139</v>
       </c>
       <c r="C25" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="26" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="26" ht="16.8" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>409</v>
+        <v>111</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>438</v>
+        <v>140</v>
       </c>
       <c r="C26" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>409</v>
+        <v>111</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>439</v>
+        <v>141</v>
       </c>
       <c r="C27" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>409</v>
+        <v>111</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>440</v>
+        <v>142</v>
       </c>
       <c r="C28" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>410</v>
+        <v>112</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>441</v>
+        <v>143</v>
       </c>
       <c r="C29" s="8">
         <v>1</v>
@@ -2159,10 +1246,10 @@
     </row>
     <row r="30" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>411</v>
+        <v>113</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>442</v>
+        <v>144</v>
       </c>
       <c r="C30" s="8">
         <v>1</v>
@@ -2170,10 +1257,10 @@
     </row>
     <row r="31" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>412</v>
+        <v>114</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>443</v>
+        <v>145</v>
       </c>
       <c r="C31" s="8">
         <v>1</v>
